--- a/Asian hornet data.xlsx
+++ b/Asian hornet data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc989a75547cfb81/2e Master Biologie/Masterthesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc989a75547cfb81/Documenten/GitHub/vespa_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1145" documentId="8_{F783EE88-4B03-4AE9-A349-951C9389F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9314345A-3B45-4CC1-97D6-739DD0BF73CF}"/>
+  <xr:revisionPtr revIDLastSave="1349" documentId="8_{F783EE88-4B03-4AE9-A349-951C9389F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB984F8-4C85-4E4C-AEA8-C8527299BCD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -720,6 +720,15 @@
   <si>
     <t>Werchtersebaan</t>
   </si>
+  <si>
+    <t>Traject100m</t>
+  </si>
+  <si>
+    <t>Traject50m</t>
+  </si>
+  <si>
+    <t>Traject25m</t>
+  </si>
 </sst>
 </file>
 
@@ -880,10 +889,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,7 +1191,7 @@
   <dimension ref="A1:V288"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
@@ -39714,16 +39719,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FFDA88-3512-4357-B275-C59183D0EF18}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88:J89"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -39733,7 +39738,7 @@
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -39764,12 +39769,17 @@
       <c r="J1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39801,8 +39811,17 @@
       <c r="J2" s="29">
         <v>4.5341049995353482E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>5.1596000000000003E-2</v>
+      </c>
+      <c r="L2">
+        <v>6.4191999999999999E-2</v>
+      </c>
+      <c r="M2">
+        <v>7.3478000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39834,8 +39853,17 @@
       <c r="J3" s="29">
         <v>3.860722317196693E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>5.0944999999999997E-2</v>
+      </c>
+      <c r="L3">
+        <v>6.3520999999999994E-2</v>
+      </c>
+      <c r="M3">
+        <v>7.2451000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -39867,8 +39895,17 @@
       <c r="J4" s="29">
         <v>5.3286502015016501E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0.14440700000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.124222</v>
+      </c>
+      <c r="M4">
+        <v>0.125587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -39900,8 +39937,17 @@
       <c r="J5" s="29">
         <v>0.28208460004638852</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>4.9972999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>3.3219999999999999E-3</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -39933,8 +39979,17 @@
       <c r="J6" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0.196515</v>
+      </c>
+      <c r="L6">
+        <v>0.213473</v>
+      </c>
+      <c r="M6">
+        <v>0.212758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -39966,8 +40021,17 @@
       <c r="J7" s="29">
         <v>0.1210405513179111</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0.22778799999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.20752499999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.17999599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -39999,8 +40063,17 @@
       <c r="J8" s="29">
         <v>0.1076029463670773</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0.22371099999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.211177</v>
+      </c>
+      <c r="M8">
+        <v>0.20330300000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -40032,8 +40105,17 @@
       <c r="J9" s="29">
         <v>0.1189198708681007</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0.22686100000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.25004199999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.24909700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -40065,8 +40147,17 @@
       <c r="J10" s="29">
         <v>4.6044471669482293E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0.23095499999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.23885999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.23367399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -40098,8 +40189,17 @@
       <c r="J11" s="29">
         <v>0.40972245750475711</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0.244367</v>
+      </c>
+      <c r="L11">
+        <v>0.256687</v>
+      </c>
+      <c r="M11">
+        <v>0.267959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -40131,8 +40231,17 @@
       <c r="J12" s="29">
         <v>0.33429934671409872</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0.23610200000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.25421899999999997</v>
+      </c>
+      <c r="M12">
+        <v>0.224776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -40164,8 +40273,17 @@
       <c r="J13" s="29">
         <v>0.26900741765608061</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.238731</v>
+      </c>
+      <c r="L13">
+        <v>0.27346999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.233289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -40197,8 +40315,17 @@
       <c r="J14" s="29">
         <v>0.14149240617098871</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0.20494899999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.21172199999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.176506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -40230,8 +40357,17 @@
       <c r="J15" s="29">
         <v>0.1331550702922748</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>3.4766999999999999E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.5174999999999999E-2</v>
+      </c>
+      <c r="M15">
+        <v>3.1778000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -40263,8 +40399,17 @@
       <c r="J16" s="29">
         <v>0.1595978483252935</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>6.1925000000000001E-2</v>
+      </c>
+      <c r="L16">
+        <v>8.3808999999999995E-2</v>
+      </c>
+      <c r="M16">
+        <v>9.3293000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -40296,8 +40441,17 @@
       <c r="J17" s="29">
         <v>8.1986500750877503E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>7.6271000000000005E-2</v>
+      </c>
+      <c r="L17">
+        <v>8.4245E-2</v>
+      </c>
+      <c r="M17">
+        <v>6.1786000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -40329,8 +40483,17 @@
       <c r="J18" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>6.4441999999999999E-2</v>
+      </c>
+      <c r="L18">
+        <v>3.4835999999999999E-2</v>
+      </c>
+      <c r="M18">
+        <v>2.6186999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -40362,8 +40525,17 @@
       <c r="J19" s="29">
         <v>8.3150431872175412E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>6.2940999999999997E-2</v>
+      </c>
+      <c r="L19">
+        <v>7.1579000000000004E-2</v>
+      </c>
+      <c r="M19">
+        <v>7.5427999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -40395,8 +40567,17 @@
       <c r="J20" s="29">
         <v>4.9318056172216483E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>4.1036000000000003E-2</v>
+      </c>
+      <c r="L20">
+        <v>2.4178999999999999E-2</v>
+      </c>
+      <c r="M20">
+        <v>2.9257999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -40428,8 +40609,17 @@
       <c r="J21" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -40461,8 +40651,17 @@
       <c r="J22" s="29">
         <v>0.17386810927096219</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0.105655</v>
+      </c>
+      <c r="L22">
+        <v>7.9812999999999995E-2</v>
+      </c>
+      <c r="M22">
+        <v>9.5102999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -40494,8 +40693,17 @@
       <c r="J23" s="29">
         <v>8.2208162198764936E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0.110609</v>
+      </c>
+      <c r="L23">
+        <v>9.9113000000000007E-2</v>
+      </c>
+      <c r="M23">
+        <v>9.6228999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -40527,8 +40735,17 @@
       <c r="J24" s="29">
         <v>2.1790599788351121E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>7.8100000000000001E-4</v>
+      </c>
+      <c r="L24">
+        <v>1.091E-3</v>
+      </c>
+      <c r="M24">
+        <v>2.4250000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
@@ -40560,8 +40777,17 @@
       <c r="J25" s="29">
         <v>0.13547305787430799</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>0.30058499999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.28777999999999998</v>
+      </c>
+      <c r="M25">
+        <v>0.28107900000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -40593,8 +40819,17 @@
       <c r="J26" s="29">
         <v>0.38469016324826738</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>0.388075</v>
+      </c>
+      <c r="L26">
+        <v>0.40619499999999997</v>
+      </c>
+      <c r="M26">
+        <v>0.376805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
@@ -40626,8 +40861,17 @@
       <c r="J27" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0.26639699999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.24876599999999999</v>
+      </c>
+      <c r="M27">
+        <v>0.18947800000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
@@ -40659,8 +40903,17 @@
       <c r="J28" s="29">
         <v>9.4758713894499899E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>0.21404200000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.18460499999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.125115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
@@ -40692,8 +40945,17 @@
       <c r="J29" s="29">
         <v>0.28277461708178259</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>0.31141000000000002</v>
+      </c>
+      <c r="L29">
+        <v>0.289022</v>
+      </c>
+      <c r="M29">
+        <v>0.31811499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
@@ -40725,8 +40987,17 @@
       <c r="J30" s="29">
         <v>0.14083287620321119</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>0.26976699999999998</v>
+      </c>
+      <c r="L30">
+        <v>0.29388599999999998</v>
+      </c>
+      <c r="M30">
+        <v>0.34789399999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>17</v>
       </c>
@@ -40758,8 +41029,17 @@
       <c r="J31" s="29">
         <v>2.76633797244424E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>4.7405000000000003E-2</v>
+      </c>
+      <c r="L31">
+        <v>2.3293999999999999E-2</v>
+      </c>
+      <c r="M31">
+        <v>4.1019999999999997E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17</v>
       </c>
@@ -40791,8 +41071,17 @@
       <c r="J32" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>9.7619999999999998E-3</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -40824,8 +41113,17 @@
       <c r="J33" s="29">
         <v>1.834980854740274E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>0.162523</v>
+      </c>
+      <c r="L33">
+        <v>0.16505600000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.16639100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18</v>
       </c>
@@ -40857,8 +41155,17 @@
       <c r="J34" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>0.120694</v>
+      </c>
+      <c r="L34">
+        <v>0.14195199999999999</v>
+      </c>
+      <c r="M34">
+        <v>0.106504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>18</v>
       </c>
@@ -40890,8 +41197,17 @@
       <c r="J35" s="29">
         <v>0.13701149432725701</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>0.169017</v>
+      </c>
+      <c r="L35">
+        <v>0.21209800000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.22319700000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>18</v>
       </c>
@@ -40923,8 +41239,17 @@
       <c r="J36" s="29">
         <v>0.22207419763435279</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>0.22125700000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.24021300000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.30274499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>19</v>
       </c>
@@ -40956,8 +41281,17 @@
       <c r="J37" s="29">
         <v>9.2046126819696657E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>0.18473500000000001</v>
+      </c>
+      <c r="L37">
+        <v>0.13147300000000001</v>
+      </c>
+      <c r="M37">
+        <v>8.3446999999999993E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -40989,8 +41323,17 @@
       <c r="J38" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="L38">
+        <v>1.6549999999999999E-2</v>
+      </c>
+      <c r="M38">
+        <v>1.8155000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
@@ -41022,8 +41365,17 @@
       <c r="J39" s="29">
         <v>0.13842033807412099</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>0.10391400000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.12352299999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.147038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -41055,8 +41407,17 @@
       <c r="J40" s="29">
         <v>0.28277461708178259</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>0.32049100000000003</v>
+      </c>
+      <c r="L40">
+        <v>0.30568600000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.32006200000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>21</v>
       </c>
@@ -41088,8 +41449,17 @@
       <c r="J41" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>0.108399</v>
+      </c>
+      <c r="L41">
+        <v>0.100505</v>
+      </c>
+      <c r="M41">
+        <v>0.10882799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>21</v>
       </c>
@@ -41121,8 +41491,17 @@
       <c r="J42" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>7.6086000000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>7.7475000000000002E-2</v>
+      </c>
+      <c r="M42">
+        <v>7.8888E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
@@ -41154,8 +41533,17 @@
       <c r="J43" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>0.116327</v>
+      </c>
+      <c r="L43">
+        <v>0.13059399999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.11335099999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>21</v>
       </c>
@@ -41187,8 +41575,17 @@
       <c r="J44" s="29">
         <v>5.6898598670932929E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>0.13888400000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.14244599999999999</v>
+      </c>
+      <c r="M44">
+        <v>0.138576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>21</v>
       </c>
@@ -41220,8 +41617,17 @@
       <c r="J45" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>0.15918599999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.121338</v>
+      </c>
+      <c r="M45">
+        <v>6.9820999999999994E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>21</v>
       </c>
@@ -41253,8 +41659,17 @@
       <c r="J46" s="29">
         <v>7.4943002334207252E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>0.15940699999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.115623</v>
+      </c>
+      <c r="M46">
+        <v>6.9306000000000006E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>21</v>
       </c>
@@ -41286,8 +41701,17 @@
       <c r="J47" s="29">
         <v>2.519979672630741E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>0.14732899999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.145649</v>
+      </c>
+      <c r="M47">
+        <v>0.134965</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>21</v>
       </c>
@@ -41319,8 +41743,17 @@
       <c r="J48" s="29">
         <v>0.14930452728609789</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>0.151335</v>
+      </c>
+      <c r="L48">
+        <v>0.16214400000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.11244700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>21</v>
       </c>
@@ -41352,8 +41785,17 @@
       <c r="J49" s="29">
         <v>2.374164953906421E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>0.15051200000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.116095</v>
+      </c>
+      <c r="M49">
+        <v>3.0459E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>21</v>
       </c>
@@ -41385,8 +41827,17 @@
       <c r="J50" s="29">
         <v>0.16037562750458489</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>0.150009</v>
+      </c>
+      <c r="L50">
+        <v>0.127521</v>
+      </c>
+      <c r="M50">
+        <v>9.1095999999999996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>23</v>
       </c>
@@ -41418,8 +41869,17 @@
       <c r="J51" s="29">
         <v>1.8410137130212469E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>5.2505999999999997E-2</v>
+      </c>
+      <c r="L51">
+        <v>3.5727000000000002E-2</v>
+      </c>
+      <c r="M51">
+        <v>2.7621E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>23</v>
       </c>
@@ -41451,8 +41911,17 @@
       <c r="J52" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>3.7642000000000002E-2</v>
+      </c>
+      <c r="L52">
+        <v>3.4297000000000001E-2</v>
+      </c>
+      <c r="M52">
+        <v>3.0405999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>23</v>
       </c>
@@ -41484,8 +41953,17 @@
       <c r="J53" s="29">
         <v>0.25559224888054649</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>1.8929000000000001E-2</v>
+      </c>
+      <c r="L53">
+        <v>3.2568E-2</v>
+      </c>
+      <c r="M53">
+        <v>4.2844E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -41517,8 +41995,17 @@
       <c r="J54" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1.9366999999999999E-2</v>
+      </c>
+      <c r="L54">
+        <v>1.2612999999999999E-2</v>
+      </c>
+      <c r="M54">
+        <v>2.4580000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24</v>
       </c>
@@ -41550,8 +42037,17 @@
       <c r="J55" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="L55">
+        <v>2.2742999999999999E-2</v>
+      </c>
+      <c r="M55">
+        <v>2.5659000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24</v>
       </c>
@@ -41583,8 +42079,17 @@
       <c r="J56" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>5.6932000000000003E-2</v>
+      </c>
+      <c r="L56">
+        <v>3.9135999999999997E-2</v>
+      </c>
+      <c r="M56">
+        <v>4.7268999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>26</v>
       </c>
@@ -41616,8 +42121,17 @@
       <c r="J57" s="29">
         <v>0.17520061536250139</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>0.25031399999999998</v>
+      </c>
+      <c r="L57">
+        <v>0.228628</v>
+      </c>
+      <c r="M57">
+        <v>0.20554700000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>27</v>
       </c>
@@ -41649,8 +42163,17 @@
       <c r="J58" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>7.8510000000000003E-3</v>
+      </c>
+      <c r="L58">
+        <v>8.7170000000000008E-3</v>
+      </c>
+      <c r="M58">
+        <v>4.7559999999999998E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>28</v>
       </c>
@@ -41682,8 +42205,17 @@
       <c r="J59" s="29">
         <v>0.23526190482445941</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>0.26864300000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.23613600000000001</v>
+      </c>
+      <c r="M59">
+        <v>0.24044699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>29</v>
       </c>
@@ -41715,8 +42247,17 @@
       <c r="J60" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>2.4929E-2</v>
+      </c>
+      <c r="L60">
+        <v>1.2364999999999999E-2</v>
+      </c>
+      <c r="M60">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>30</v>
       </c>
@@ -41748,8 +42289,17 @@
       <c r="J61" s="29">
         <v>0.10496067782210571</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>8.4569000000000005E-2</v>
+      </c>
+      <c r="L61">
+        <v>8.8482000000000005E-2</v>
+      </c>
+      <c r="M61">
+        <v>9.7045000000000006E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>30</v>
       </c>
@@ -41781,8 +42331,17 @@
       <c r="J62" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>2.8590999999999998E-2</v>
+      </c>
+      <c r="L62">
+        <v>9.6790000000000001E-3</v>
+      </c>
+      <c r="M62">
+        <v>2.1150000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>30</v>
       </c>
@@ -41814,8 +42373,17 @@
       <c r="J63" s="29">
         <v>1.9843060391085372E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>5.1066E-2</v>
+      </c>
+      <c r="L63">
+        <v>1.0088E-2</v>
+      </c>
+      <c r="M63">
+        <v>3.2429999999999998E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>30</v>
       </c>
@@ -41847,8 +42415,17 @@
       <c r="J64" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>8.7848999999999997E-2</v>
+      </c>
+      <c r="L64">
+        <v>9.7529999999999995E-3</v>
+      </c>
+      <c r="M64">
+        <v>7.9044000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>30</v>
       </c>
@@ -41880,8 +42457,17 @@
       <c r="J65" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>0.120295</v>
+      </c>
+      <c r="L65">
+        <v>7.8039999999999998E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.13358600000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -41913,8 +42499,17 @@
       <c r="J66" s="29">
         <v>6.800892891998972E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>0.141511</v>
+      </c>
+      <c r="L66">
+        <v>0.135932</v>
+      </c>
+      <c r="M66">
+        <v>9.5842999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>30</v>
       </c>
@@ -41946,8 +42541,17 @@
       <c r="J67" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>5.1133999999999999E-2</v>
+      </c>
+      <c r="L67">
+        <v>0.107211</v>
+      </c>
+      <c r="M67">
+        <v>3.2390000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>31</v>
       </c>
@@ -41979,8 +42583,17 @@
       <c r="J68" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>7.2510000000000005E-2</v>
+      </c>
+      <c r="L68">
+        <v>6.6459000000000004E-2</v>
+      </c>
+      <c r="M68">
+        <v>7.0041999999999993E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>31</v>
       </c>
@@ -42012,8 +42625,17 @@
       <c r="J69" s="29">
         <v>2.519979672630741E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>0.15299599999999999</v>
+      </c>
+      <c r="L69">
+        <v>0.17122499999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.17175599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>32</v>
       </c>
@@ -42045,8 +42667,17 @@
       <c r="J70" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>3.62E-3</v>
+      </c>
+      <c r="L70">
+        <v>3.591E-3</v>
+      </c>
+      <c r="M70">
+        <v>3.3470000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>32</v>
       </c>
@@ -42078,8 +42709,17 @@
       <c r="J71" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="29">
+        <v>0</v>
+      </c>
+      <c r="L71" s="29">
+        <v>0</v>
+      </c>
+      <c r="M71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>33</v>
       </c>
@@ -42111,8 +42751,17 @@
       <c r="J72" s="29">
         <v>0.48068972018694922</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>0.36043500000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.38829399999999997</v>
+      </c>
+      <c r="M72">
+        <v>0.38469300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>34</v>
       </c>
@@ -42144,8 +42793,17 @@
       <c r="J73" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>2.3331999999999999E-2</v>
+      </c>
+      <c r="L73">
+        <v>2.918E-3</v>
+      </c>
+      <c r="M73">
+        <v>2.52E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>34</v>
       </c>
@@ -42177,8 +42835,17 @@
       <c r="J74" s="29">
         <v>1.3585103273908369E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>0.11013299999999999</v>
+      </c>
+      <c r="L74">
+        <v>0.12584699999999999</v>
+      </c>
+      <c r="M74">
+        <v>0.135544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>35</v>
       </c>
@@ -42210,8 +42877,17 @@
       <c r="J75" s="29">
         <v>0.12934937727905421</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>3.4217999999999998E-2</v>
+      </c>
+      <c r="L75">
+        <v>3.1267000000000003E-2</v>
+      </c>
+      <c r="M75">
+        <v>2.5114999999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>35</v>
       </c>
@@ -42243,8 +42919,17 @@
       <c r="J76" s="29">
         <v>0.12646391086958081</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>2.0334000000000001E-2</v>
+      </c>
+      <c r="L76">
+        <v>1.6445999999999999E-2</v>
+      </c>
+      <c r="M76">
+        <v>8.2500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>36</v>
       </c>
@@ -42276,8 +42961,17 @@
       <c r="J77" s="29">
         <v>5.0611784619994951E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>4.3395000000000003E-2</v>
+      </c>
+      <c r="L77">
+        <v>2.7650000000000001E-2</v>
+      </c>
+      <c r="M77">
+        <v>1.3292E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>36</v>
       </c>
@@ -42309,8 +43003,17 @@
       <c r="J78" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>3.3994999999999997E-2</v>
+      </c>
+      <c r="L78">
+        <v>4.4186999999999997E-2</v>
+      </c>
+      <c r="M78">
+        <v>4.6403E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>37</v>
       </c>
@@ -42342,8 +43045,17 @@
       <c r="J79" s="29">
         <v>0.17508462943475339</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>4.1901000000000001E-2</v>
+      </c>
+      <c r="L79">
+        <v>4.9516999999999999E-2</v>
+      </c>
+      <c r="M79">
+        <v>3.1220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>37</v>
       </c>
@@ -42375,8 +43087,17 @@
       <c r="J80" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>2.4403000000000001E-2</v>
+      </c>
+      <c r="L80">
+        <v>4.5436999999999998E-2</v>
+      </c>
+      <c r="M80">
+        <v>4.7539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>38</v>
       </c>
@@ -42408,8 +43129,17 @@
       <c r="J81" s="29">
         <v>0.53503986080129939</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>0.49695</v>
+      </c>
+      <c r="L81">
+        <v>0.52925999999999995</v>
+      </c>
+      <c r="M81">
+        <v>0.58048500000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>38</v>
       </c>
@@ -42420,7 +43150,7 @@
         <v>51.061210000000003</v>
       </c>
       <c r="D82" s="2">
-        <v>3.7478600000000002</v>
+        <v>3.7497199999999999</v>
       </c>
       <c r="E82">
         <v>130</v>
@@ -42441,8 +43171,17 @@
       <c r="J82" s="29">
         <v>2.430574496164855E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>0.41189799999999999</v>
+      </c>
+      <c r="L82">
+        <v>0.3679</v>
+      </c>
+      <c r="M82">
+        <v>0.38469900000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>39</v>
       </c>
@@ -42474,8 +43213,17 @@
       <c r="J83" s="29">
         <v>0.53503986080129939</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>0.50495999999999996</v>
+      </c>
+      <c r="L83">
+        <v>0.53703800000000002</v>
+      </c>
+      <c r="M83">
+        <v>0.56076300000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>40</v>
       </c>
@@ -42507,8 +43255,17 @@
       <c r="J84" s="29">
         <v>0.17196489871628001</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>0.128943</v>
+      </c>
+      <c r="L84">
+        <v>0.13381699999999999</v>
+      </c>
+      <c r="M84">
+        <v>0.13320699999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>40</v>
       </c>
@@ -42540,8 +43297,17 @@
       <c r="J85" s="29">
         <v>0.1073495675214694</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>9.0340000000000004E-2</v>
+      </c>
+      <c r="L85">
+        <v>0.12531500000000001</v>
+      </c>
+      <c r="M85">
+        <v>0.113122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>40</v>
       </c>
@@ -42573,8 +43339,17 @@
       <c r="J86" s="29">
         <v>0.12954452708265279</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>9.1512999999999997E-2</v>
+      </c>
+      <c r="L86">
+        <v>0.108684</v>
+      </c>
+      <c r="M86">
+        <v>0.119574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -42606,8 +43381,17 @@
       <c r="J87" s="29">
         <v>5.3286502015016501E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>0.142045</v>
+      </c>
+      <c r="L87">
+        <v>0.126527</v>
+      </c>
+      <c r="M87">
+        <v>0.15645100000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -42639,8 +43423,17 @@
       <c r="J88">
         <v>0.27867900000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>0.13034899999999999</v>
+      </c>
+      <c r="L88">
+        <v>0.125389</v>
+      </c>
+      <c r="M88">
+        <v>0.12578700000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>41</v>
       </c>
@@ -42672,24 +43465,19 @@
       <c r="J89">
         <v>0.11226800000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L90" s="27"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L91" s="27"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L92" s="27"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L93" s="27"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L94" s="27"/>
+      <c r="K89">
+        <v>6.4866999999999994E-2</v>
+      </c>
+      <c r="L89">
+        <v>4.9277000000000001E-2</v>
+      </c>
+      <c r="M89">
+        <v>5.0243000000000003E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Asian hornet data.xlsx
+++ b/Asian hornet data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc989a75547cfb81/Documenten/GitHub/vespa_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1771" documentId="8_{F783EE88-4B03-4AE9-A349-951C9389F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{236480AF-77A0-4334-878A-AA9796CFAD0D}"/>
+  <xr:revisionPtr revIDLastSave="1972" documentId="8_{F783EE88-4B03-4AE9-A349-951C9389F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F6B629-4381-4509-B791-AB192BA79946}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="239">
   <si>
     <t>Date</t>
   </si>
@@ -759,6 +759,12 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>tail&amp;upwind</t>
+  </si>
+  <si>
+    <t>Wind2</t>
+  </si>
 </sst>
 </file>
 
@@ -1224,9 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC3462-51EA-49F0-8541-5518B67248DA}">
   <dimension ref="A1:V285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView topLeftCell="I1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,6 +1251,7 @@
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1308,6 +1315,9 @@
       <c r="T1" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1373,7 +1383,9 @@
       <c r="T2" t="s">
         <v>211</v>
       </c>
-      <c r="U2"/>
+      <c r="U2" t="s">
+        <v>211</v>
+      </c>
       <c r="V2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1441,7 +1453,9 @@
       <c r="T3" t="s">
         <v>211</v>
       </c>
-      <c r="U3"/>
+      <c r="U3" t="s">
+        <v>211</v>
+      </c>
       <c r="V3"/>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1509,7 +1523,9 @@
       <c r="T4" t="s">
         <v>211</v>
       </c>
-      <c r="U4"/>
+      <c r="U4" t="s">
+        <v>211</v>
+      </c>
       <c r="V4"/>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1577,7 +1593,9 @@
       <c r="T5" t="s">
         <v>211</v>
       </c>
-      <c r="U5"/>
+      <c r="U5" t="s">
+        <v>211</v>
+      </c>
       <c r="V5"/>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1645,7 +1663,9 @@
       <c r="T6" t="s">
         <v>211</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="s">
+        <v>211</v>
+      </c>
       <c r="V6"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1713,7 +1733,9 @@
       <c r="T7" t="s">
         <v>211</v>
       </c>
-      <c r="U7"/>
+      <c r="U7" t="s">
+        <v>211</v>
+      </c>
       <c r="V7"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1803,9 @@
       <c r="T8" t="s">
         <v>211</v>
       </c>
-      <c r="U8"/>
+      <c r="U8" t="s">
+        <v>211</v>
+      </c>
       <c r="V8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1849,6 +1873,9 @@
       <c r="T9" t="s">
         <v>211</v>
       </c>
+      <c r="U9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1915,6 +1942,9 @@
       <c r="T10" t="s">
         <v>211</v>
       </c>
+      <c r="U10" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1981,6 +2011,9 @@
       <c r="T11" t="s">
         <v>212</v>
       </c>
+      <c r="U11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -2040,6 +2073,9 @@
       <c r="T12" t="s">
         <v>211</v>
       </c>
+      <c r="U12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -2106,6 +2142,9 @@
       <c r="T13" t="s">
         <v>212</v>
       </c>
+      <c r="U13" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2165,6 +2204,9 @@
       <c r="T14" t="s">
         <v>211</v>
       </c>
+      <c r="U14" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -2231,6 +2273,9 @@
       <c r="T15" t="s">
         <v>211</v>
       </c>
+      <c r="U15" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -2290,8 +2335,11 @@
       <c r="T16" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2356,8 +2404,11 @@
       <c r="T17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2422,8 +2473,11 @@
       <c r="T18" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2488,8 +2542,11 @@
       <c r="T19" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -2554,8 +2611,11 @@
       <c r="T20" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2620,8 +2680,11 @@
       <c r="T21" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2679,8 +2742,11 @@
       <c r="T22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2745,8 +2811,11 @@
       <c r="T23" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2804,8 +2873,11 @@
       <c r="T24" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2870,8 +2942,11 @@
       <c r="T25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2936,8 +3011,11 @@
       <c r="T26" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3002,8 +3080,11 @@
       <c r="T27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3068,8 +3149,11 @@
       <c r="T28" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -3134,8 +3218,11 @@
       <c r="T29" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3200,8 +3287,11 @@
       <c r="T30" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3266,8 +3356,11 @@
       <c r="T31" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3331,6 +3424,9 @@
       </c>
       <c r="T32" t="s">
         <v>212</v>
+      </c>
+      <c r="U32" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -3398,6 +3494,9 @@
       <c r="T33" t="s">
         <v>211</v>
       </c>
+      <c r="U33" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -3464,6 +3563,9 @@
       <c r="T34" t="s">
         <v>211</v>
       </c>
+      <c r="U34" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -3530,7 +3632,9 @@
       <c r="T35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U35" s="1"/>
+      <c r="U35" t="s">
+        <v>237</v>
+      </c>
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -3598,7 +3702,9 @@
       <c r="T36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U36" s="1"/>
+      <c r="U36" t="s">
+        <v>237</v>
+      </c>
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -3666,7 +3772,9 @@
       <c r="T37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U37" s="1"/>
+      <c r="U37" t="s">
+        <v>237</v>
+      </c>
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -3734,7 +3842,9 @@
       <c r="T38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U38" s="1"/>
+      <c r="U38" t="s">
+        <v>237</v>
+      </c>
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -3802,7 +3912,9 @@
       <c r="T39" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U39" s="1"/>
+      <c r="U39" t="s">
+        <v>237</v>
+      </c>
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -3870,7 +3982,9 @@
       <c r="T40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U40" s="1"/>
+      <c r="U40" t="s">
+        <v>237</v>
+      </c>
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -3938,7 +4052,9 @@
       <c r="T41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U41" s="1"/>
+      <c r="U41" t="s">
+        <v>237</v>
+      </c>
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -4006,6 +4122,9 @@
       <c r="T42" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="U42" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -4067,6 +4186,9 @@
       <c r="T43" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="U43" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -4128,6 +4250,9 @@
       <c r="T44" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="U44" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -4189,6 +4314,9 @@
       <c r="T45" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="U45" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -4250,6 +4378,9 @@
       <c r="T46" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="U46" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -4311,6 +4442,9 @@
       <c r="T47" t="s">
         <v>210</v>
       </c>
+      <c r="U47" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -4372,8 +4506,11 @@
       <c r="T48" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -4433,8 +4570,11 @@
       <c r="T49" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -4488,7 +4628,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -4523,7 +4663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4555,7 +4695,7 @@
       </c>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4587,7 +4727,7 @@
       </c>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4619,7 +4759,7 @@
       </c>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4651,7 +4791,7 @@
       </c>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4683,7 +4823,7 @@
       </c>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4746,8 +4886,11 @@
       <c r="T57" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4809,8 +4952,11 @@
       <c r="T58" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4873,8 +5019,11 @@
       <c r="T59" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4937,8 +5086,11 @@
       <c r="T60" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -5001,8 +5153,11 @@
       <c r="T61" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -5065,8 +5220,11 @@
       <c r="T62" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -5129,8 +5287,11 @@
       <c r="T63" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -5193,8 +5354,11 @@
       <c r="T64" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -5257,8 +5421,11 @@
       <c r="T65" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -5321,8 +5488,11 @@
       <c r="T66" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -5385,8 +5555,11 @@
       <c r="T67" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A132" si="7">A67+1</f>
         <v>67</v>
@@ -5449,8 +5622,11 @@
       <c r="T68" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="7"/>
         <v>68</v>
@@ -5513,8 +5689,11 @@
       <c r="T69" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="7"/>
         <v>69</v>
@@ -5579,8 +5758,11 @@
       <c r="T70" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="7"/>
         <v>70</v>
@@ -5638,8 +5820,11 @@
       <c r="T71" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="7"/>
         <v>71</v>
@@ -5704,8 +5889,11 @@
       <c r="T72" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="7"/>
         <v>72</v>
@@ -5770,8 +5958,11 @@
       <c r="T73" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="7"/>
         <v>73</v>
@@ -5829,8 +6020,11 @@
       <c r="T74" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="7"/>
         <v>74</v>
@@ -5895,8 +6089,11 @@
       <c r="T75" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -5961,8 +6158,11 @@
       <c r="T76" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="7"/>
         <v>76</v>
@@ -6027,8 +6227,11 @@
       <c r="T77" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="7"/>
         <v>77</v>
@@ -6093,8 +6296,11 @@
       <c r="T78" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="7"/>
         <v>78</v>
@@ -6159,8 +6365,11 @@
       <c r="T79" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="7"/>
         <v>79</v>
@@ -6225,8 +6434,11 @@
       <c r="T80" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6291,8 +6503,11 @@
       <c r="T81" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6357,8 +6572,11 @@
       <c r="T82" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6421,8 +6639,11 @@
       <c r="T83" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6485,8 +6706,11 @@
       <c r="T84" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6542,7 +6766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6598,7 +6822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6654,7 +6878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6686,7 +6910,7 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6751,8 +6975,11 @@
       <c r="T89" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6810,8 +7037,11 @@
       <c r="T90" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -6876,8 +7106,11 @@
       <c r="T91" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="7"/>
         <v>91</v>
@@ -6942,8 +7175,11 @@
       <c r="T92" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="7"/>
         <v>92</v>
@@ -7008,8 +7244,11 @@
       <c r="T93" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="7"/>
         <v>93</v>
@@ -7074,8 +7313,11 @@
       <c r="T94" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -7140,8 +7382,11 @@
       <c r="T95" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -7206,8 +7451,11 @@
       <c r="T96" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -7272,8 +7520,11 @@
       <c r="T97" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -7338,8 +7589,11 @@
       <c r="T98" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -7404,8 +7658,11 @@
       <c r="T99" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -7470,8 +7727,11 @@
       <c r="T100" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -7536,8 +7796,11 @@
       <c r="T101" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -7602,8 +7865,11 @@
       <c r="T102" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -7668,8 +7934,11 @@
       <c r="T103" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -7734,8 +8003,11 @@
       <c r="T104" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -7800,8 +8072,11 @@
       <c r="T105" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -7866,8 +8141,11 @@
       <c r="T106" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -7932,8 +8210,11 @@
       <c r="T107" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -7998,8 +8279,11 @@
       <c r="T108" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -8044,7 +8328,7 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -8092,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -8157,8 +8441,11 @@
       <c r="T111" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -8223,8 +8510,11 @@
       <c r="T112" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -8282,8 +8572,11 @@
       <c r="T113" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -8348,8 +8641,11 @@
       <c r="T114" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U114" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -8414,8 +8710,11 @@
       <c r="T115" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U115" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -8480,8 +8779,11 @@
       <c r="T116" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -8539,8 +8841,11 @@
       <c r="T117" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U117" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -8598,8 +8903,11 @@
       <c r="T118" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U118" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -8664,8 +8972,11 @@
       <c r="T119" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U119" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -8723,8 +9034,11 @@
       <c r="T120" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -8757,7 +9071,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -8790,7 +9104,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -8823,7 +9137,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" si="7"/>
         <v>123</v>
@@ -8856,7 +9170,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" si="7"/>
         <v>124</v>
@@ -8889,7 +9203,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -8922,7 +9236,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" si="7"/>
         <v>126</v>
@@ -8955,7 +9269,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" si="7"/>
         <v>127</v>
@@ -8994,7 +9308,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" si="7"/>
         <v>128</v>
@@ -9059,8 +9373,11 @@
       <c r="T129" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -9125,8 +9442,11 @@
       <c r="T130" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" si="7"/>
         <v>130</v>
@@ -9191,8 +9511,11 @@
       <c r="T131" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -9254,8 +9577,11 @@
       <c r="T132" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U132" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ref="A133:A196" si="12">A132+1</f>
         <v>132</v>
@@ -9317,8 +9643,11 @@
       <c r="T133" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U133" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" si="12"/>
         <v>133</v>
@@ -9380,8 +9709,11 @@
       <c r="T134" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" si="12"/>
         <v>134</v>
@@ -9426,7 +9758,7 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" si="12"/>
         <v>135</v>
@@ -9471,7 +9803,7 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" si="12"/>
         <v>136</v>
@@ -9536,8 +9868,11 @@
       <c r="T137" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" si="12"/>
         <v>137</v>
@@ -9602,8 +9937,11 @@
       <c r="T138" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="12"/>
         <v>138</v>
@@ -9668,8 +10006,11 @@
       <c r="T139" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U139" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="12"/>
         <v>139</v>
@@ -9701,7 +10042,7 @@
       </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="12"/>
         <v>140</v>
@@ -9766,8 +10107,11 @@
       <c r="T141" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U141" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="12"/>
         <v>141</v>
@@ -9832,8 +10176,11 @@
       <c r="T142" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="12"/>
         <v>142</v>
@@ -9898,8 +10245,11 @@
       <c r="T143" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U143" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" si="12"/>
         <v>143</v>
@@ -9964,8 +10314,11 @@
       <c r="T144" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U144" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="12"/>
         <v>144</v>
@@ -10030,8 +10383,11 @@
       <c r="T145" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U145" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="12"/>
         <v>145</v>
@@ -10096,8 +10452,11 @@
       <c r="T146" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U146" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="12"/>
         <v>146</v>
@@ -10162,8 +10521,11 @@
       <c r="T147" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U147" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="12"/>
         <v>147</v>
@@ -10228,8 +10590,11 @@
       <c r="T148" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U148" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="12"/>
         <v>148</v>
@@ -10294,8 +10659,11 @@
       <c r="T149" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U149" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="12"/>
         <v>149</v>
@@ -10360,8 +10728,11 @@
       <c r="T150" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U150" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="12"/>
         <v>150</v>
@@ -10417,7 +10788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="12"/>
         <v>151</v>
@@ -10466,7 +10837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="12"/>
         <v>152</v>
@@ -10515,7 +10886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="12"/>
         <v>153</v>
@@ -10580,8 +10951,11 @@
       <c r="T154" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="12"/>
         <v>154</v>
@@ -10639,8 +11013,11 @@
       <c r="T155" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="12"/>
         <v>155</v>
@@ -10685,7 +11062,7 @@
       </c>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="12"/>
         <v>156</v>
@@ -10730,7 +11107,7 @@
       </c>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="12"/>
         <v>157</v>
@@ -10775,7 +11152,7 @@
       </c>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="12"/>
         <v>158</v>
@@ -10821,7 +11198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="12"/>
         <v>159</v>
@@ -10866,7 +11243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="12"/>
         <v>160</v>
@@ -10914,7 +11291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="12"/>
         <v>161</v>
@@ -10962,7 +11339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="12"/>
         <v>162</v>
@@ -11010,7 +11387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="12"/>
         <v>163</v>
@@ -11058,7 +11435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="12"/>
         <v>164</v>
@@ -11103,7 +11480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="12"/>
         <v>165</v>
@@ -11148,7 +11525,7 @@
       </c>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" si="12"/>
         <v>166</v>
@@ -11193,7 +11570,7 @@
       </c>
       <c r="N167" s="11"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" si="12"/>
         <v>167</v>
@@ -11238,7 +11615,7 @@
       </c>
       <c r="N168" s="11"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" si="12"/>
         <v>168</v>
@@ -11283,7 +11660,7 @@
       </c>
       <c r="N169" s="11"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" si="12"/>
         <v>169</v>
@@ -11328,7 +11705,7 @@
       </c>
       <c r="N170" s="11"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" si="12"/>
         <v>170</v>
@@ -11373,7 +11750,7 @@
       </c>
       <c r="N171" s="11"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" si="12"/>
         <v>171</v>
@@ -11418,7 +11795,7 @@
       </c>
       <c r="N172" s="11"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" si="12"/>
         <v>172</v>
@@ -11463,7 +11840,7 @@
       </c>
       <c r="N173" s="11"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" si="12"/>
         <v>173</v>
@@ -11528,8 +11905,11 @@
       <c r="T174" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" si="12"/>
         <v>174</v>
@@ -11594,8 +11974,11 @@
       <c r="T175" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" si="12"/>
         <v>175</v>
@@ -11660,8 +12043,11 @@
       <c r="T176" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" si="12"/>
         <v>176</v>
@@ -11719,8 +12105,11 @@
       <c r="T177" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U177" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" si="12"/>
         <v>177</v>
@@ -11785,8 +12174,11 @@
       <c r="T178" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" si="12"/>
         <v>178</v>
@@ -11844,8 +12236,11 @@
       <c r="T179" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U179" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" si="12"/>
         <v>179</v>
@@ -11910,8 +12305,11 @@
       <c r="T180" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" si="12"/>
         <v>180</v>
@@ -11969,8 +12367,11 @@
       <c r="T181" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U181" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" si="12"/>
         <v>181</v>
@@ -12026,7 +12427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" si="12"/>
         <v>182</v>
@@ -12082,7 +12483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" si="12"/>
         <v>183</v>
@@ -12138,7 +12539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" si="12"/>
         <v>184</v>
@@ -12194,7 +12595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" si="12"/>
         <v>185</v>
@@ -12250,7 +12651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" si="12"/>
         <v>186</v>
@@ -12292,7 +12693,7 @@
       </c>
       <c r="N187" s="11"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" si="12"/>
         <v>187</v>
@@ -12327,7 +12728,7 @@
       </c>
       <c r="N188" s="11"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" si="12"/>
         <v>188</v>
@@ -12362,7 +12763,7 @@
       </c>
       <c r="N189" s="11"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" si="12"/>
         <v>189</v>
@@ -12410,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" si="12"/>
         <v>190</v>
@@ -12455,7 +12856,7 @@
       </c>
       <c r="N191" s="11"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" si="12"/>
         <v>191</v>
@@ -12511,7 +12912,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" si="12"/>
         <v>192</v>
@@ -12567,7 +12968,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" si="12"/>
         <v>193</v>
@@ -12623,7 +13024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" si="12"/>
         <v>194</v>
@@ -12679,7 +13080,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" si="12"/>
         <v>195</v>
@@ -12721,7 +13122,7 @@
       </c>
       <c r="N196" s="11"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" ref="A197:A260" si="16">A196+1</f>
         <v>196</v>
@@ -12763,7 +13164,7 @@
       </c>
       <c r="N197" s="11"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" si="16"/>
         <v>197</v>
@@ -12805,7 +13206,7 @@
       </c>
       <c r="N198" s="11"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" si="16"/>
         <v>198</v>
@@ -12847,7 +13248,7 @@
       </c>
       <c r="N199" s="11"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" si="16"/>
         <v>199</v>
@@ -12889,7 +13290,7 @@
       </c>
       <c r="N200" s="11"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" si="16"/>
         <v>200</v>
@@ -12931,7 +13332,7 @@
       </c>
       <c r="N201" s="11"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" si="16"/>
         <v>201</v>
@@ -12973,7 +13374,7 @@
       </c>
       <c r="N202" s="11"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" si="16"/>
         <v>202</v>
@@ -13015,7 +13416,7 @@
       </c>
       <c r="N203" s="11"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" si="16"/>
         <v>203</v>
@@ -13057,7 +13458,7 @@
       </c>
       <c r="N204" s="11"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" si="16"/>
         <v>204</v>
@@ -13099,7 +13500,7 @@
       </c>
       <c r="N205" s="11"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" si="16"/>
         <v>205</v>
@@ -13164,8 +13565,11 @@
       <c r="T206" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" si="16"/>
         <v>206</v>
@@ -13210,7 +13614,7 @@
       </c>
       <c r="N207" s="11"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" si="16"/>
         <v>207</v>
@@ -13591,6 +13995,9 @@
       <c r="T215" t="s">
         <v>211</v>
       </c>
+      <c r="U215" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
@@ -13657,6 +14064,9 @@
       <c r="T216" t="s">
         <v>211</v>
       </c>
+      <c r="U216" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
@@ -13723,6 +14133,9 @@
       <c r="T217" t="s">
         <v>211</v>
       </c>
+      <c r="U217" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
@@ -13789,6 +14202,9 @@
       <c r="T218" t="s">
         <v>211</v>
       </c>
+      <c r="U218" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
@@ -13855,6 +14271,9 @@
       <c r="T219" t="s">
         <v>211</v>
       </c>
+      <c r="U219" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
@@ -13921,6 +14340,9 @@
       <c r="T220" t="s">
         <v>211</v>
       </c>
+      <c r="U220" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
@@ -13987,6 +14409,9 @@
       <c r="T221" t="s">
         <v>211</v>
       </c>
+      <c r="U221" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
@@ -14053,6 +14478,9 @@
       <c r="T222" t="s">
         <v>211</v>
       </c>
+      <c r="U222" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
@@ -14119,6 +14547,9 @@
       <c r="T223" t="s">
         <v>211</v>
       </c>
+      <c r="U223" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
@@ -14185,6 +14616,9 @@
       <c r="T224" t="s">
         <v>211</v>
       </c>
+      <c r="U224" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
@@ -14251,6 +14685,9 @@
       <c r="T225" t="s">
         <v>211</v>
       </c>
+      <c r="U225" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
@@ -14317,6 +14754,9 @@
       <c r="T226" t="s">
         <v>211</v>
       </c>
+      <c r="U226" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
@@ -14383,6 +14823,9 @@
       <c r="T227" t="s">
         <v>211</v>
       </c>
+      <c r="U227" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
@@ -14449,6 +14892,9 @@
       <c r="T228" t="s">
         <v>211</v>
       </c>
+      <c r="U228" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
@@ -14515,6 +14961,9 @@
       <c r="T229" t="s">
         <v>211</v>
       </c>
+      <c r="U229" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
@@ -14581,6 +15030,9 @@
       <c r="T230" t="s">
         <v>211</v>
       </c>
+      <c r="U230" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
@@ -14647,6 +15099,9 @@
       <c r="T231" t="s">
         <v>211</v>
       </c>
+      <c r="U231" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
@@ -14713,6 +15168,9 @@
       <c r="T232" t="s">
         <v>211</v>
       </c>
+      <c r="U232" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
@@ -15049,7 +15507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" si="16"/>
         <v>240</v>
@@ -15097,7 +15555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" si="16"/>
         <v>241</v>
@@ -15142,7 +15600,7 @@
       </c>
       <c r="N242" s="11"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" si="16"/>
         <v>242</v>
@@ -15207,8 +15665,11 @@
       <c r="T243" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U243" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" si="16"/>
         <v>243</v>
@@ -15273,8 +15734,11 @@
       <c r="T244" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U244" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" si="16"/>
         <v>244</v>
@@ -15339,8 +15803,11 @@
       <c r="T245" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U245" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" si="16"/>
         <v>245</v>
@@ -15405,8 +15872,11 @@
       <c r="T246" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U246" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" si="16"/>
         <v>246</v>
@@ -15471,8 +15941,11 @@
       <c r="T247" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U247" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" si="16"/>
         <v>247</v>
@@ -15537,8 +16010,11 @@
       <c r="T248" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U248" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" si="16"/>
         <v>248</v>
@@ -15603,8 +16079,11 @@
       <c r="T249" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U249" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" si="16"/>
         <v>249</v>
@@ -15669,8 +16148,11 @@
       <c r="T250" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U250" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" si="16"/>
         <v>250</v>
@@ -15735,8 +16217,11 @@
       <c r="T251" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U251" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" si="16"/>
         <v>251</v>
@@ -15801,8 +16286,11 @@
       <c r="T252" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U252" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" si="16"/>
         <v>252</v>
@@ -15867,8 +16355,11 @@
       <c r="T253" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U253" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" si="16"/>
         <v>253</v>
@@ -15933,8 +16424,11 @@
       <c r="T254" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U254" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" si="16"/>
         <v>254</v>
@@ -15999,8 +16493,11 @@
       <c r="T255" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U255" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" si="16"/>
         <v>255</v>
@@ -16065,8 +16562,11 @@
       <c r="T256" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U256" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" si="16"/>
         <v>256</v>
@@ -16131,8 +16631,11 @@
       <c r="T257" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U257" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" si="16"/>
         <v>257</v>
@@ -16197,8 +16700,11 @@
       <c r="T258" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U258" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" si="16"/>
         <v>258</v>
@@ -16263,8 +16769,11 @@
       <c r="T259" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U259" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" si="16"/>
         <v>259</v>
@@ -16329,8 +16838,11 @@
       <c r="T260" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U260" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" ref="A261:A285" si="22">A260+1</f>
         <v>260</v>
@@ -16395,8 +16907,11 @@
       <c r="T261" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U261" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" si="22"/>
         <v>261</v>
@@ -16461,8 +16976,11 @@
       <c r="T262" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U262" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" si="22"/>
         <v>262</v>
@@ -16527,8 +17045,11 @@
       <c r="T263" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U263" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" si="22"/>
         <v>263</v>
@@ -16593,8 +17114,11 @@
       <c r="T264" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U264" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" si="22"/>
         <v>264</v>
@@ -16659,8 +17183,11 @@
       <c r="T265" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U265" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" si="22"/>
         <v>265</v>
@@ -16725,8 +17252,11 @@
       <c r="T266" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U266" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" si="22"/>
         <v>266</v>
@@ -16791,8 +17321,11 @@
       <c r="T267" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U267" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" si="22"/>
         <v>267</v>
@@ -16857,8 +17390,11 @@
       <c r="T268" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U268" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" si="22"/>
         <v>268</v>
@@ -16923,8 +17459,11 @@
       <c r="T269" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U269" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" si="22"/>
         <v>269</v>
@@ -16989,8 +17528,11 @@
       <c r="T270" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U270" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" si="22"/>
         <v>270</v>
@@ -17055,8 +17597,11 @@
       <c r="T271" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U271" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" si="22"/>
         <v>271</v>
@@ -17121,8 +17666,11 @@
       <c r="T272" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U272" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" si="22"/>
         <v>272</v>
@@ -17187,8 +17735,11 @@
       <c r="T273" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U273" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" si="22"/>
         <v>273</v>
@@ -17253,8 +17804,11 @@
       <c r="T274" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U274" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" si="22"/>
         <v>274</v>
@@ -17319,8 +17873,11 @@
       <c r="T275" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U275" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" si="22"/>
         <v>275</v>
@@ -17385,8 +17942,11 @@
       <c r="T276" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U276" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" si="22"/>
         <v>276</v>
@@ -17451,8 +18011,11 @@
       <c r="T277" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U277" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" si="22"/>
         <v>277</v>
@@ -17497,7 +18060,7 @@
       </c>
       <c r="N278" s="11"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" si="22"/>
         <v>278</v>
@@ -17542,7 +18105,7 @@
       </c>
       <c r="N279" s="11"/>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" si="22"/>
         <v>279</v>
@@ -17587,7 +18150,7 @@
       </c>
       <c r="N280" s="11"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" si="22"/>
         <v>280</v>
@@ -17632,7 +18195,7 @@
       </c>
       <c r="N281" s="11"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" si="22"/>
         <v>281</v>
@@ -17667,7 +18230,7 @@
       </c>
       <c r="N282" s="11"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" si="22"/>
         <v>282</v>
@@ -17705,7 +18268,7 @@
       </c>
       <c r="N283" s="11"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" si="22"/>
         <v>283</v>
@@ -17749,7 +18312,7 @@
         <v>6.0000000003840004</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" si="22"/>
         <v>284</v>
@@ -23350,9 +23913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506B509-6600-45F3-AE3A-12D2E3DBB896}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="P1" zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U95" sqref="U95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23370,9 +23933,10 @@
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -23433,8 +23997,11 @@
       <c r="T1" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -23498,8 +24065,11 @@
       <c r="T2" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -23563,8 +24133,11 @@
       <c r="T3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -23628,8 +24201,11 @@
       <c r="T4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -23693,8 +24269,11 @@
       <c r="T5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -23758,8 +24337,11 @@
       <c r="T6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -23823,8 +24405,11 @@
       <c r="T7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -23888,8 +24473,11 @@
       <c r="T8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -23948,8 +24536,11 @@
       <c r="T9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24001,8 +24592,11 @@
       <c r="T10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -24064,8 +24658,11 @@
       <c r="T11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -24126,8 +24723,11 @@
       <c r="T12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -24189,8 +24789,11 @@
       <c r="T13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -24252,8 +24855,11 @@
       <c r="T14" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -24315,8 +24921,11 @@
       <c r="T15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -24378,8 +24987,11 @@
       <c r="T16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -24441,8 +25053,11 @@
       <c r="T17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -24504,8 +25119,11 @@
       <c r="T18" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -24567,8 +25185,11 @@
       <c r="T19" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -24630,8 +25251,11 @@
       <c r="T20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -24693,8 +25317,11 @@
       <c r="T21" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -24756,8 +25383,11 @@
       <c r="T22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -24814,8 +25444,11 @@
       <c r="T23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -24879,8 +25512,11 @@
       <c r="T24" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -24944,8 +25580,11 @@
       <c r="T25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -25001,7 +25640,7 @@
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -25065,8 +25704,11 @@
       <c r="T27" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -25130,8 +25772,11 @@
       <c r="T28" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -25195,8 +25840,11 @@
       <c r="T29" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -25260,8 +25908,11 @@
       <c r="T30" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -25306,7 +25957,7 @@
       <c r="N31" s="11"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -25354,7 +26005,7 @@
       </c>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -25418,8 +26069,11 @@
       <c r="T33" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -25483,8 +26137,11 @@
       <c r="T34" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -25541,8 +26198,11 @@
       <c r="T35" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -25606,8 +26266,11 @@
       <c r="T36" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -25664,8 +26327,11 @@
       <c r="T37" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -25698,7 +26364,7 @@
       <c r="N38" s="11"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -25737,7 +26403,7 @@
       <c r="N39" s="11"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -25801,8 +26467,11 @@
       <c r="T40" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -25858,7 +26527,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -25903,7 +26572,7 @@
       <c r="N42" s="11"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -25948,7 +26617,7 @@
       <c r="N43" s="11"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -26012,8 +26681,11 @@
       <c r="T44" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -26045,7 +26717,7 @@
       <c r="N45" s="11"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -26090,7 +26762,7 @@
       <c r="N46" s="11"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -26135,7 +26807,7 @@
       <c r="N47" s="11"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -26199,8 +26871,11 @@
       <c r="T48" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -26246,7 +26921,7 @@
       </c>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -26310,8 +26985,11 @@
       <c r="T50" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -26356,7 +27034,7 @@
       </c>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -26401,7 +27079,7 @@
       </c>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -26446,7 +27124,7 @@
       <c r="N53" s="11"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -26491,7 +27169,7 @@
       <c r="N54" s="11"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -26536,7 +27214,7 @@
       <c r="N55" s="11"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -26600,8 +27278,11 @@
       <c r="T56" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -26665,8 +27346,11 @@
       <c r="T57" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -26722,7 +27406,7 @@
       </c>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -26778,7 +27462,7 @@
       </c>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -26834,7 +27518,7 @@
       </c>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -26876,7 +27560,7 @@
       <c r="N61" s="11"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -26924,7 +27608,7 @@
       </c>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -26969,7 +27653,7 @@
       <c r="N63" s="11"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -27025,7 +27709,7 @@
       </c>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -27067,7 +27751,7 @@
       <c r="N65" s="11"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -27109,7 +27793,7 @@
       <c r="N66" s="11"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -27151,7 +27835,7 @@
       <c r="N67" s="11"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -27193,7 +27877,7 @@
       <c r="N68" s="11"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -27235,7 +27919,7 @@
       <c r="N69" s="11"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -27277,7 +27961,7 @@
       <c r="N70" s="11"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -27319,7 +28003,7 @@
       <c r="N71" s="11"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -27361,7 +28045,7 @@
       <c r="N72" s="11"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -27403,7 +28087,7 @@
       <c r="N73" s="11"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -27467,8 +28151,11 @@
       <c r="T74" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -27513,7 +28200,7 @@
       <c r="N75" s="11"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -27558,7 +28245,7 @@
       <c r="N76" s="11"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -27603,7 +28290,7 @@
       <c r="N77" s="11"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -27648,7 +28335,7 @@
       <c r="N78" s="11"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -27712,8 +28399,11 @@
       <c r="T79" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -27777,6 +28467,9 @@
       <c r="T80" t="s">
         <v>211</v>
       </c>
+      <c r="U80" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
@@ -27842,6 +28535,9 @@
       <c r="T81" t="s">
         <v>211</v>
       </c>
+      <c r="U81" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
@@ -28261,6 +28957,9 @@
       <c r="T90" t="s">
         <v>211</v>
       </c>
+      <c r="U90" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
@@ -28326,6 +29025,9 @@
       <c r="T91" t="s">
         <v>211</v>
       </c>
+      <c r="U91" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
@@ -28391,6 +29093,9 @@
       <c r="T92" t="s">
         <v>211</v>
       </c>
+      <c r="U92" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
@@ -28456,6 +29161,9 @@
       <c r="T93" t="s">
         <v>212</v>
       </c>
+      <c r="U93" t="s">
+        <v>237</v>
+      </c>
       <c r="V93" s="28"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -28521,6 +29229,9 @@
       </c>
       <c r="T94" t="s">
         <v>212</v>
+      </c>
+      <c r="U94" t="s">
+        <v>237</v>
       </c>
       <c r="V94" s="28"/>
     </row>
@@ -28713,9 +29424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5012C4C3-9D38-4646-83A5-026C0223C147}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28733,9 +29444,10 @@
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -28796,8 +29508,11 @@
       <c r="T1" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -28861,8 +29576,11 @@
       <c r="T2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -28926,8 +29644,11 @@
       <c r="T3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -28991,8 +29712,11 @@
       <c r="T4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -29056,8 +29780,11 @@
       <c r="T5" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -29116,8 +29843,11 @@
       <c r="T6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -29169,8 +29899,11 @@
       <c r="T7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -29232,8 +29965,11 @@
       <c r="T8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -29294,8 +30030,11 @@
       <c r="T9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -29357,8 +30096,11 @@
       <c r="T10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -29420,8 +30162,11 @@
       <c r="T11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -29483,8 +30228,11 @@
       <c r="T12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -29546,8 +30294,11 @@
       <c r="T13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -29609,8 +30360,11 @@
       <c r="T14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -29672,8 +30426,11 @@
       <c r="T15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -29735,8 +30492,11 @@
       <c r="T16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -29798,8 +30558,11 @@
       <c r="T17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -29861,8 +30624,11 @@
       <c r="T18" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -29924,8 +30690,11 @@
       <c r="T19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -29982,8 +30751,11 @@
       <c r="T20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -30047,8 +30819,11 @@
       <c r="T21" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -30112,8 +30887,11 @@
       <c r="T22" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -30169,7 +30947,7 @@
       </c>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -30233,8 +31011,11 @@
       <c r="T24" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -30298,8 +31079,11 @@
       <c r="T25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -30344,7 +31128,7 @@
       <c r="N26" s="11"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -30392,7 +31176,7 @@
       </c>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -30456,8 +31240,11 @@
       <c r="T28" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -30490,7 +31277,7 @@
       <c r="N29" s="11"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -30529,7 +31316,7 @@
       <c r="N30" s="11"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -30593,8 +31380,11 @@
       <c r="T31" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -30639,7 +31429,7 @@
       <c r="N32" s="11"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -30684,7 +31474,7 @@
       <c r="N33" s="11"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -30748,8 +31538,11 @@
       <c r="T34" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -30813,8 +31606,11 @@
       <c r="T35" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -30860,7 +31656,7 @@
       </c>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -30924,8 +31720,11 @@
       <c r="T37" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -30975,8 +31774,11 @@
       <c r="T38" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -31021,7 +31823,7 @@
       <c r="N39" s="11"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -31066,7 +31868,7 @@
       <c r="N40" s="11"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -31130,8 +31932,11 @@
       <c r="T41" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -31195,8 +32000,11 @@
       <c r="T42" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -31252,7 +32060,7 @@
       </c>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -31308,7 +32116,7 @@
       </c>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -31364,7 +32172,7 @@
       </c>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -31406,7 +32214,7 @@
       <c r="N46" s="11"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -31454,7 +32262,7 @@
       </c>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -31499,7 +32307,7 @@
       <c r="N48" s="11"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -31555,7 +32363,7 @@
       </c>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -31597,7 +32405,7 @@
       <c r="N50" s="11"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -31639,7 +32447,7 @@
       <c r="N51" s="11"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -31681,7 +32489,7 @@
       <c r="N52" s="11"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -31723,7 +32531,7 @@
       <c r="N53" s="11"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -31765,7 +32573,7 @@
       <c r="N54" s="11"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -31807,7 +32615,7 @@
       <c r="N55" s="11"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -31849,7 +32657,7 @@
       <c r="N56" s="11"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -31891,7 +32699,7 @@
       <c r="N57" s="11"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -31936,7 +32744,7 @@
       <c r="N58" s="11"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -31981,7 +32789,7 @@
       <c r="N59" s="11"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -32026,7 +32834,7 @@
       <c r="N60" s="11"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -32071,7 +32879,7 @@
       <c r="N61" s="11"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -32135,8 +32943,11 @@
       <c r="T62" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -32178,7 +32989,7 @@
       <c r="N63" s="11"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -32506,6 +33317,9 @@
       <c r="T70" t="s">
         <v>211</v>
       </c>
+      <c r="U70" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -32571,6 +33385,9 @@
       <c r="T71" t="s">
         <v>212</v>
       </c>
+      <c r="U71" t="s">
+        <v>237</v>
+      </c>
       <c r="V71" s="28"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -32636,6 +33453,9 @@
       </c>
       <c r="T72" t="s">
         <v>212</v>
+      </c>
+      <c r="U72" t="s">
+        <v>237</v>
       </c>
       <c r="V72" s="28"/>
     </row>

--- a/Asian hornet data.xlsx
+++ b/Asian hornet data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc989a75547cfb81/Documenten/GitHub/vespa_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1972" documentId="8_{F783EE88-4B03-4AE9-A349-951C9389F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F6B629-4381-4509-B791-AB192BA79946}"/>
+  <xr:revisionPtr revIDLastSave="1977" documentId="8_{F783EE88-4B03-4AE9-A349-951C9389F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348A2E7A-B066-4492-B5F8-69A3199BF816}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -29424,9 +29424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5012C4C3-9D38-4646-83A5-026C0223C147}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U73" sqref="U73"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35393,7 +35393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35412,10 +35412,10 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -36356,8 +36356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B0B53-F404-4AEE-B84D-7413AF3F1842}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36377,10 +36377,10 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>

--- a/Asian hornet data.xlsx
+++ b/Asian hornet data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helee\OneDrive\Documenten\GitHub\vespa_analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE5C378-0905-49DC-A67A-B0B4998947F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA70BF-EF32-441A-AF65-BAFDBD15F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="Other_visitors" sheetId="4" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flights!$B$1:$V$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flights!$B$1:$V$283</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -991,10 +991,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -1292,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC3462-51EA-49F0-8541-5518B67248DA}">
-  <dimension ref="A1:V284"/>
+  <dimension ref="A1:V285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A197" sqref="A197:XFD197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10824,7 +10820,7 @@
         <v>2.3148148148148151E-3</v>
       </c>
       <c r="M144" s="32">
-        <f t="shared" ref="M144:M206" si="17">L144/0.0006944444444</f>
+        <f t="shared" ref="M144:M207" si="17">L144/0.0006944444444</f>
         <v>3.3333333335466673</v>
       </c>
       <c r="N144" s="34">
@@ -12399,7 +12395,7 @@
         <v>170</v>
       </c>
       <c r="K173">
-        <f t="shared" ref="K173:K203" si="18">IF(ABS(I173-J173)&gt;180,360-ABS(I173-J173),ABS(I173-J173))</f>
+        <f t="shared" ref="K173:K204" si="18">IF(ABS(I173-J173)&gt;180,360-ABS(I173-J173),ABS(I173-J173))</f>
         <v>93</v>
       </c>
       <c r="L173" s="23">
@@ -13689,8 +13685,9 @@
         <v>195</v>
       </c>
       <c r="B196" s="31">
-        <v>44840</v>
-      </c>
+        <v>44841</v>
+      </c>
+      <c r="C196" s="18"/>
       <c r="D196">
         <v>29</v>
       </c>
@@ -13710,20 +13707,18 @@
         <v>88.2</v>
       </c>
       <c r="J196">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K196">
-        <f t="shared" si="18"/>
-        <v>4.7999999999999972</v>
+        <v>12.2</v>
       </c>
       <c r="L196" s="23">
-        <v>2.7777777777777779E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="M196" s="32">
-        <f t="shared" si="17"/>
-        <v>4.0000000002560006</v>
-      </c>
-      <c r="N196" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="N196" s="34"/>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
@@ -13731,7 +13726,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="31">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="D197">
         <v>29</v>
@@ -13740,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G197" t="s">
         <v>224</v>
@@ -13752,18 +13747,18 @@
         <v>88.2</v>
       </c>
       <c r="J197">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="K197">
         <f t="shared" si="18"/>
-        <v>40.799999999999997</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="L197" s="23">
-        <v>5.5555555555555558E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M197" s="32">
         <f t="shared" si="17"/>
-        <v>8.0000000005120011</v>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N197" s="11"/>
     </row>
@@ -13773,39 +13768,39 @@
         <v>197</v>
       </c>
       <c r="B198" s="31">
-        <v>44850</v>
+        <v>44839</v>
       </c>
       <c r="D198">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G198" t="s">
         <v>224</v>
       </c>
       <c r="H198">
-        <v>197</v>
+        <v>619</v>
       </c>
       <c r="I198">
-        <v>35</v>
+        <v>88.2</v>
       </c>
       <c r="J198">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="K198">
         <f t="shared" si="18"/>
-        <v>27</v>
-      </c>
-      <c r="L198" s="28">
-        <v>2.0833333333333333E-3</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L198" s="23">
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="M198" s="32">
         <f t="shared" si="17"/>
-        <v>3.0000000001920002</v>
+        <v>8.0000000005120011</v>
       </c>
       <c r="N198" s="11"/>
     </row>
@@ -13815,39 +13810,39 @@
         <v>198</v>
       </c>
       <c r="B199" s="31">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="D199">
         <v>30</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G199" t="s">
         <v>224</v>
       </c>
       <c r="H199">
-        <v>404</v>
+        <v>197</v>
       </c>
       <c r="I199">
-        <v>293.10000000000002</v>
+        <v>35</v>
       </c>
       <c r="J199">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="K199">
         <f t="shared" si="18"/>
-        <v>12.100000000000023</v>
+        <v>27</v>
       </c>
       <c r="L199" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="M199" s="32">
         <f t="shared" si="17"/>
-        <v>4.0000000002560006</v>
+        <v>3.0000000001920002</v>
       </c>
       <c r="N199" s="11"/>
     </row>
@@ -13857,39 +13852,39 @@
         <v>199</v>
       </c>
       <c r="B200" s="31">
-        <v>44844</v>
+        <v>44849</v>
       </c>
       <c r="D200">
         <v>30</v>
       </c>
       <c r="E200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G200" t="s">
         <v>224</v>
       </c>
       <c r="H200">
-        <v>503</v>
+        <v>404</v>
       </c>
       <c r="I200">
-        <v>295.60000000000002</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="J200">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K200">
         <f t="shared" si="18"/>
-        <v>7.6000000000000227</v>
+        <v>12.100000000000023</v>
       </c>
       <c r="L200" s="28">
-        <v>5.5555555555555558E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M200" s="32">
         <f t="shared" si="17"/>
-        <v>8.0000000005120011</v>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N200" s="11"/>
     </row>
@@ -13899,39 +13894,39 @@
         <v>200</v>
       </c>
       <c r="B201" s="31">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="D201">
         <v>30</v>
       </c>
       <c r="E201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G201" t="s">
         <v>224</v>
       </c>
       <c r="H201">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="I201">
-        <v>261.2</v>
+        <v>295.60000000000002</v>
       </c>
       <c r="J201">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="K201">
         <f t="shared" si="18"/>
-        <v>23.199999999999989</v>
+        <v>7.6000000000000227</v>
       </c>
       <c r="L201" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="M201" s="32">
         <f t="shared" si="17"/>
-        <v>4.0000000002560006</v>
+        <v>8.0000000005120011</v>
       </c>
       <c r="N201" s="11"/>
     </row>
@@ -13941,39 +13936,39 @@
         <v>201</v>
       </c>
       <c r="B202" s="31">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="D202">
         <v>30</v>
       </c>
       <c r="E202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F202" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G202" t="s">
         <v>224</v>
       </c>
       <c r="H202">
-        <v>939</v>
+        <v>493</v>
       </c>
       <c r="I202">
-        <v>227.1</v>
+        <v>261.2</v>
       </c>
       <c r="J202">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="K202">
         <f t="shared" si="18"/>
-        <v>26.099999999999994</v>
+        <v>23.199999999999989</v>
       </c>
       <c r="L202" s="28">
-        <v>4.8611111111111112E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M202" s="32">
         <f t="shared" si="17"/>
-        <v>7.0000000004479999</v>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N202" s="11"/>
     </row>
@@ -13989,26 +13984,26 @@
         <v>30</v>
       </c>
       <c r="E203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F203" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="G203" t="s">
         <v>224</v>
       </c>
       <c r="H203">
-        <v>891</v>
+        <v>939</v>
       </c>
       <c r="I203">
-        <v>297.2</v>
+        <v>227.1</v>
       </c>
       <c r="J203">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="K203">
         <f t="shared" si="18"/>
-        <v>29.800000000000011</v>
+        <v>26.099999999999994</v>
       </c>
       <c r="L203" s="28">
         <v>4.8611111111111112E-3</v>
@@ -14025,32 +14020,32 @@
         <v>203</v>
       </c>
       <c r="B204" s="31">
-        <v>44843</v>
+        <v>44842</v>
       </c>
       <c r="D204">
         <v>30</v>
       </c>
       <c r="E204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="G204" t="s">
         <v>224</v>
       </c>
       <c r="H204">
-        <v>504</v>
+        <v>891</v>
       </c>
       <c r="I204">
-        <v>295.8</v>
+        <v>297.2</v>
       </c>
       <c r="J204">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="K204">
-        <f t="shared" ref="K204:K235" si="20">IF(ABS(I204-J204)&gt;180,360-ABS(I204-J204),ABS(I204-J204))</f>
-        <v>20.199999999999989</v>
+        <f t="shared" si="18"/>
+        <v>29.800000000000011</v>
       </c>
       <c r="L204" s="28">
         <v>4.8611111111111112E-3</v>
@@ -14067,72 +14062,41 @@
         <v>204</v>
       </c>
       <c r="B205" s="31">
-        <v>44825</v>
-      </c>
-      <c r="C205" s="18">
-        <v>0.75138888888888899</v>
+        <v>44843</v>
       </c>
       <c r="D205">
-        <v>31</v>
-      </c>
-      <c r="E205" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="E205">
+        <v>7</v>
       </c>
       <c r="F205" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G205" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="H205">
-        <v>1058</v>
+        <v>504</v>
       </c>
       <c r="I205">
-        <v>114.19999999999999</v>
+        <v>295.8</v>
       </c>
       <c r="J205">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="K205">
-        <f t="shared" si="20"/>
-        <v>5.8000000000000114</v>
-      </c>
-      <c r="L205" s="23">
-        <v>5.6481481481481478E-3</v>
+        <f t="shared" ref="K205:K236" si="20">IF(ABS(I205-J205)&gt;180,360-ABS(I205-J205),ABS(I205-J205))</f>
+        <v>20.199999999999989</v>
+      </c>
+      <c r="L205" s="28">
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="M205" s="32">
         <f t="shared" si="17"/>
-        <v>8.1333333338538658</v>
-      </c>
-      <c r="N205" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205">
-        <v>1.5</v>
-      </c>
-      <c r="Q205">
-        <v>110</v>
-      </c>
-      <c r="R205" s="7">
-        <v>20</v>
-      </c>
-      <c r="S205">
-        <f t="shared" ref="S205:S254" si="21">IF(ABS(J205-Q205)&gt;180,360-ABS(J205-Q205),ABS(J205-Q205))</f>
-        <v>10</v>
-      </c>
-      <c r="T205" t="s">
-        <v>210</v>
-      </c>
-      <c r="U205">
-        <f t="shared" ref="U205:U257" si="22">IF(ABS(I205-Q205)&gt;180,360-ABS(I205-Q205),ABS(I205-Q205))</f>
-        <v>4.1999999999999886</v>
-      </c>
-      <c r="V205" t="s">
-        <v>210</v>
-      </c>
+        <v>7.0000000004479999</v>
+      </c>
+      <c r="N205" s="11"/>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
@@ -14140,10 +14104,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="31">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="C206" s="18">
-        <v>0.625</v>
+        <v>0.75138888888888899</v>
       </c>
       <c r="D206">
         <v>31</v>
@@ -14152,10 +14116,10 @@
         <v>108</v>
       </c>
       <c r="F206" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G206" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="H206">
         <v>1058</v>
@@ -14171,13 +14135,41 @@
         <v>5.8000000000000114</v>
       </c>
       <c r="L206" s="23">
-        <v>4.7453703703703703E-3</v>
+        <v>5.6481481481481478E-3</v>
       </c>
       <c r="M206" s="32">
         <f t="shared" si="17"/>
-        <v>6.8333333337706668</v>
-      </c>
-      <c r="N206" s="11"/>
+        <v>8.1333333338538658</v>
+      </c>
+      <c r="N206" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>1.5</v>
+      </c>
+      <c r="Q206">
+        <v>110</v>
+      </c>
+      <c r="R206" s="7">
+        <v>20</v>
+      </c>
+      <c r="S206">
+        <f t="shared" ref="S206:S255" si="21">IF(ABS(J206-Q206)&gt;180,360-ABS(J206-Q206),ABS(J206-Q206))</f>
+        <v>10</v>
+      </c>
+      <c r="T206" t="s">
+        <v>210</v>
+      </c>
+      <c r="U206">
+        <f t="shared" ref="U206:U258" si="22">IF(ABS(I206-Q206)&gt;180,360-ABS(I206-Q206),ABS(I206-Q206))</f>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="V206" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
@@ -14185,42 +14177,42 @@
         <v>206</v>
       </c>
       <c r="B207" s="31">
-        <v>44834</v>
+        <v>44822</v>
       </c>
       <c r="C207" s="18">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="D207">
         <v>31</v>
       </c>
       <c r="E207" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F207" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G207" t="s">
         <v>184</v>
       </c>
       <c r="H207">
-        <v>846</v>
+        <v>1058</v>
       </c>
       <c r="I207">
-        <v>151.80000000000001</v>
+        <v>114.19999999999999</v>
       </c>
       <c r="J207">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K207">
         <f t="shared" si="20"/>
-        <v>16.800000000000011</v>
+        <v>5.8000000000000114</v>
       </c>
       <c r="L207" s="23">
-        <v>4.1666666666666666E-3</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="M207" s="32">
-        <f t="shared" ref="M207:M270" si="23">L207/0.0006944444444</f>
-        <v>6.0000000003840004</v>
+        <f t="shared" si="17"/>
+        <v>6.8333333337706668</v>
       </c>
       <c r="N207" s="11"/>
     </row>
@@ -14233,7 +14225,7 @@
         <v>44834</v>
       </c>
       <c r="C208" s="18">
-        <v>0.63541666666666696</v>
+        <v>0.59375</v>
       </c>
       <c r="D208">
         <v>31</v>
@@ -14264,7 +14256,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="M208" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="M208:M271" si="23">L208/0.0006944444444</f>
         <v>6.0000000003840004</v>
       </c>
       <c r="N208" s="11"/>
@@ -14278,7 +14270,7 @@
         <v>44834</v>
       </c>
       <c r="C209" s="18">
-        <v>0.67708333333333304</v>
+        <v>0.63541666666666696</v>
       </c>
       <c r="D209">
         <v>31</v>
@@ -14306,11 +14298,11 @@
         <v>16.800000000000011</v>
       </c>
       <c r="L209" s="23">
-        <v>4.5138888888888893E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="M209" s="32">
         <f t="shared" si="23"/>
-        <v>6.5000000004160006</v>
+        <v>6.0000000003840004</v>
       </c>
       <c r="N209" s="11"/>
     </row>
@@ -14320,42 +14312,42 @@
         <v>209</v>
       </c>
       <c r="B210" s="31">
-        <v>44853</v>
+        <v>44834</v>
       </c>
       <c r="C210" s="18">
-        <v>0.73958333333333337</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D210">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E210" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="G210" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H210">
-        <v>448</v>
+        <v>846</v>
       </c>
       <c r="I210">
-        <v>48.399999999999977</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="J210">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="K210">
         <f t="shared" si="20"/>
-        <v>13.399999999999977</v>
+        <v>16.800000000000011</v>
       </c>
       <c r="L210" s="23">
-        <v>2.5462962962962961E-3</v>
+        <v>4.5138888888888893E-3</v>
       </c>
       <c r="M210" s="32">
         <f t="shared" si="23"/>
-        <v>3.666666666901333</v>
+        <v>6.5000000004160006</v>
       </c>
       <c r="N210" s="11"/>
     </row>
@@ -14396,11 +14388,11 @@
         <v>13.399999999999977</v>
       </c>
       <c r="L211" s="23">
-        <v>3.2407407407407406E-3</v>
+        <v>2.5462962962962961E-3</v>
       </c>
       <c r="M211" s="32">
         <f t="shared" si="23"/>
-        <v>4.6666666669653329</v>
+        <v>3.666666666901333</v>
       </c>
       <c r="N211" s="11"/>
     </row>
@@ -14410,42 +14402,42 @@
         <v>211</v>
       </c>
       <c r="B212" s="31">
-        <v>44855</v>
+        <v>44853</v>
       </c>
       <c r="C212" s="18">
-        <v>0.55208333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="D212">
         <v>32</v>
       </c>
       <c r="E212" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
         <v>168</v>
       </c>
       <c r="H212">
-        <v>241</v>
+        <v>448</v>
       </c>
       <c r="I212">
-        <v>73</v>
+        <v>48.399999999999977</v>
       </c>
       <c r="J212">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K212">
         <f t="shared" si="20"/>
-        <v>28</v>
+        <v>13.399999999999977</v>
       </c>
       <c r="L212" s="23">
-        <v>3.472222222222222E-3</v>
+        <v>3.2407407407407406E-3</v>
       </c>
       <c r="M212" s="32">
         <f t="shared" si="23"/>
-        <v>5.00000000032</v>
+        <v>4.6666666669653329</v>
       </c>
       <c r="N212" s="11"/>
     </row>
@@ -14458,7 +14450,7 @@
         <v>44855</v>
       </c>
       <c r="C213" s="18">
-        <v>0.5625</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D213">
         <v>32</v>
@@ -14479,21 +14471,20 @@
         <v>73</v>
       </c>
       <c r="J213">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K213">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L213" s="23">
-        <v>2.7777777777777779E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="M213" s="32">
         <f t="shared" si="23"/>
-        <v>4.0000000002560006</v>
+        <v>5.00000000032</v>
       </c>
       <c r="N213" s="11"/>
-      <c r="V213" s="28"/>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
@@ -14501,72 +14492,45 @@
         <v>213</v>
       </c>
       <c r="B214" s="31">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="C214" s="18">
-        <v>0.64374999999999993</v>
+        <v>0.5625</v>
       </c>
       <c r="D214">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E214" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F214" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" t="s">
+        <v>168</v>
+      </c>
+      <c r="H214">
+        <v>241</v>
+      </c>
+      <c r="I214">
+        <v>73</v>
+      </c>
+      <c r="J214">
         <v>46</v>
-      </c>
-      <c r="G214" t="s">
-        <v>92</v>
-      </c>
-      <c r="H214">
-        <v>78</v>
-      </c>
-      <c r="I214">
-        <v>113</v>
-      </c>
-      <c r="J214">
-        <v>130</v>
       </c>
       <c r="K214">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L214" s="23">
-        <v>2.3495370370370371E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M214" s="32">
         <f t="shared" si="23"/>
-        <v>3.3833333335498668</v>
-      </c>
-      <c r="N214" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-      <c r="P214">
-        <v>3</v>
-      </c>
-      <c r="Q214">
-        <v>180</v>
-      </c>
-      <c r="R214" s="7">
-        <v>13</v>
-      </c>
-      <c r="S214">
-        <f t="shared" si="21"/>
-        <v>50</v>
-      </c>
-      <c r="T214" t="s">
-        <v>211</v>
-      </c>
-      <c r="U214">
-        <f t="shared" si="22"/>
-        <v>67</v>
-      </c>
-      <c r="V214" t="s">
-        <v>211</v>
-      </c>
+        <v>4.0000000002560006</v>
+      </c>
+      <c r="N214" s="11"/>
+      <c r="V214" s="28"/>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
@@ -14577,7 +14541,7 @@
         <v>44874</v>
       </c>
       <c r="C215" s="18">
-        <v>0.64444444444444449</v>
+        <v>0.64374999999999993</v>
       </c>
       <c r="D215">
         <v>33</v>
@@ -14586,7 +14550,7 @@
         <v>181</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
         <v>92</v>
@@ -14605,11 +14569,11 @@
         <v>17</v>
       </c>
       <c r="L215" s="23">
-        <v>1.1111111111111111E-3</v>
+        <v>2.3495370370370371E-3</v>
       </c>
       <c r="M215" s="32">
         <f t="shared" si="23"/>
-        <v>1.6000000001024</v>
+        <v>3.3833333335498668</v>
       </c>
       <c r="N215" s="11">
         <v>0.25</v>
@@ -14650,7 +14614,7 @@
         <v>44874</v>
       </c>
       <c r="C216" s="18">
-        <v>0.65</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="D216">
         <v>33</v>
@@ -14659,7 +14623,7 @@
         <v>181</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
         <v>92</v>
@@ -14678,11 +14642,11 @@
         <v>17</v>
       </c>
       <c r="L216" s="23">
-        <v>1.5509259259259261E-3</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="M216" s="32">
         <f t="shared" si="23"/>
-        <v>2.2333333334762671</v>
+        <v>1.6000000001024</v>
       </c>
       <c r="N216" s="11">
         <v>0.25</v>
@@ -14723,7 +14687,7 @@
         <v>44874</v>
       </c>
       <c r="C217" s="18">
-        <v>0.64861111111111114</v>
+        <v>0.65</v>
       </c>
       <c r="D217">
         <v>33</v>
@@ -14732,7 +14696,7 @@
         <v>181</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
         <v>92</v>
@@ -14751,11 +14715,11 @@
         <v>17</v>
       </c>
       <c r="L217" s="23">
-        <v>8.9120370370370362E-4</v>
+        <v>1.5509259259259261E-3</v>
       </c>
       <c r="M217" s="32">
         <f t="shared" si="23"/>
-        <v>1.2833333334154666</v>
+        <v>2.2333333334762671</v>
       </c>
       <c r="N217" s="11">
         <v>0.25</v>
@@ -14796,7 +14760,7 @@
         <v>44874</v>
       </c>
       <c r="C218" s="18">
-        <v>0.65138888888888891</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="D218">
         <v>33</v>
@@ -14824,11 +14788,11 @@
         <v>17</v>
       </c>
       <c r="L218" s="23">
-        <v>1.0763888888888889E-3</v>
+        <v>8.9120370370370362E-4</v>
       </c>
       <c r="M218" s="32">
         <f t="shared" si="23"/>
-        <v>1.5500000000992</v>
+        <v>1.2833333334154666</v>
       </c>
       <c r="N218" s="11">
         <v>0.25</v>
@@ -14869,7 +14833,7 @@
         <v>44874</v>
       </c>
       <c r="C219" s="18">
-        <v>0.65416666666666667</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="D219">
         <v>33</v>
@@ -14878,7 +14842,7 @@
         <v>181</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G219" t="s">
         <v>92</v>
@@ -14897,11 +14861,11 @@
         <v>17</v>
       </c>
       <c r="L219" s="23">
-        <v>1.8402777777777777E-3</v>
+        <v>1.0763888888888889E-3</v>
       </c>
       <c r="M219" s="32">
         <f t="shared" si="23"/>
-        <v>2.6500000001695998</v>
+        <v>1.5500000000992</v>
       </c>
       <c r="N219" s="11">
         <v>0.25</v>
@@ -14951,7 +14915,7 @@
         <v>181</v>
       </c>
       <c r="F220" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
         <v>92</v>
@@ -14970,11 +14934,11 @@
         <v>17</v>
       </c>
       <c r="L220" s="23">
-        <v>2.615740740740741E-3</v>
+        <v>1.8402777777777777E-3</v>
       </c>
       <c r="M220" s="32">
         <f t="shared" si="23"/>
-        <v>3.7666666669077338</v>
+        <v>2.6500000001695998</v>
       </c>
       <c r="N220" s="11">
         <v>0.25</v>
@@ -15015,7 +14979,7 @@
         <v>44874</v>
       </c>
       <c r="C221" s="18">
-        <v>0.65763888888888888</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="D221">
         <v>33</v>
@@ -15024,7 +14988,7 @@
         <v>181</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G221" t="s">
         <v>92</v>
@@ -15036,18 +15000,18 @@
         <v>113</v>
       </c>
       <c r="J221">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K221">
         <f t="shared" si="20"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L221" s="23">
-        <v>1.5509259259259261E-3</v>
+        <v>2.615740740740741E-3</v>
       </c>
       <c r="M221" s="32">
         <f t="shared" si="23"/>
-        <v>2.2333333334762671</v>
+        <v>3.7666666669077338</v>
       </c>
       <c r="N221" s="11">
         <v>0.25</v>
@@ -15066,7 +15030,7 @@
       </c>
       <c r="S221">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T221" t="s">
         <v>211</v>
@@ -15088,7 +15052,7 @@
         <v>44874</v>
       </c>
       <c r="C222" s="18">
-        <v>0.65902777777777777</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="D222">
         <v>33</v>
@@ -15097,7 +15061,7 @@
         <v>181</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
         <v>92</v>
@@ -15109,18 +15073,18 @@
         <v>113</v>
       </c>
       <c r="J222">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K222">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L222" s="23">
-        <v>1.6435185185185183E-3</v>
+        <v>1.5509259259259261E-3</v>
       </c>
       <c r="M222" s="32">
         <f t="shared" si="23"/>
-        <v>2.3666666668181331</v>
+        <v>2.2333333334762671</v>
       </c>
       <c r="N222" s="11">
         <v>0.25</v>
@@ -15139,7 +15103,7 @@
       </c>
       <c r="S222">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T222" t="s">
         <v>211</v>
@@ -15161,7 +15125,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="18">
-        <v>0.66041666666666665</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="D223">
         <v>33</v>
@@ -15170,7 +15134,7 @@
         <v>181</v>
       </c>
       <c r="F223" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
         <v>92</v>
@@ -15189,11 +15153,11 @@
         <v>17</v>
       </c>
       <c r="L223" s="23">
-        <v>1.9328703703703704E-3</v>
+        <v>1.6435185185185183E-3</v>
       </c>
       <c r="M223" s="32">
         <f t="shared" si="23"/>
-        <v>2.7833333335114667</v>
+        <v>2.3666666668181331</v>
       </c>
       <c r="N223" s="11">
         <v>0.25</v>
@@ -15243,7 +15207,7 @@
         <v>181</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G224" t="s">
         <v>92</v>
@@ -15262,11 +15226,11 @@
         <v>17</v>
       </c>
       <c r="L224" s="23">
-        <v>1.1458333333333333E-3</v>
+        <v>1.9328703703703704E-3</v>
       </c>
       <c r="M224" s="32">
         <f t="shared" si="23"/>
-        <v>1.6500000001056001</v>
+        <v>2.7833333335114667</v>
       </c>
       <c r="N224" s="11">
         <v>0.25</v>
@@ -15307,7 +15271,7 @@
         <v>44874</v>
       </c>
       <c r="C225" s="18">
-        <v>0.6645833333333333</v>
+        <v>0.66041666666666665</v>
       </c>
       <c r="D225">
         <v>33</v>
@@ -15316,7 +15280,7 @@
         <v>181</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>92</v>
@@ -15335,11 +15299,11 @@
         <v>17</v>
       </c>
       <c r="L225" s="23">
-        <v>2.5925925925925925E-3</v>
+        <v>1.1458333333333333E-3</v>
       </c>
       <c r="M225" s="32">
         <f t="shared" si="23"/>
-        <v>3.7333333335722667</v>
+        <v>1.6500000001056001</v>
       </c>
       <c r="N225" s="11">
         <v>0.25</v>
@@ -15380,7 +15344,7 @@
         <v>44874</v>
       </c>
       <c r="C226" s="18">
-        <v>0.66527777777777775</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="D226">
         <v>33</v>
@@ -15389,7 +15353,7 @@
         <v>181</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
         <v>92</v>
@@ -15408,11 +15372,11 @@
         <v>17</v>
       </c>
       <c r="L226" s="23">
-        <v>1.736111111111111E-3</v>
+        <v>2.5925925925925925E-3</v>
       </c>
       <c r="M226" s="32">
         <f t="shared" si="23"/>
-        <v>2.50000000016</v>
+        <v>3.7333333335722667</v>
       </c>
       <c r="N226" s="11">
         <v>0.25</v>
@@ -15453,7 +15417,7 @@
         <v>44874</v>
       </c>
       <c r="C227" s="18">
-        <v>0.66736111111111107</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D227">
         <v>33</v>
@@ -15462,7 +15426,7 @@
         <v>181</v>
       </c>
       <c r="F227" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
         <v>92</v>
@@ -15481,11 +15445,11 @@
         <v>17</v>
       </c>
       <c r="L227" s="23">
-        <v>2.8240740740740739E-3</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="M227" s="32">
         <f t="shared" si="23"/>
-        <v>4.0666666669269329</v>
+        <v>2.50000000016</v>
       </c>
       <c r="N227" s="11">
         <v>0.25</v>
@@ -15526,7 +15490,7 @@
         <v>44874</v>
       </c>
       <c r="C228" s="18">
-        <v>0.67083333333333339</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D228">
         <v>33</v>
@@ -15535,7 +15499,7 @@
         <v>181</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G228" t="s">
         <v>92</v>
@@ -15554,11 +15518,11 @@
         <v>17</v>
       </c>
       <c r="L228" s="23">
-        <v>1.712962962962963E-3</v>
+        <v>2.8240740740740739E-3</v>
       </c>
       <c r="M228" s="32">
         <f t="shared" si="23"/>
-        <v>2.4666666668245334</v>
+        <v>4.0666666669269329</v>
       </c>
       <c r="N228" s="11">
         <v>0.25</v>
@@ -15608,7 +15572,7 @@
         <v>181</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
         <v>92</v>
@@ -15627,11 +15591,11 @@
         <v>17</v>
       </c>
       <c r="L229" s="23">
-        <v>1.3194444444444443E-3</v>
+        <v>1.712962962962963E-3</v>
       </c>
       <c r="M229" s="32">
         <f t="shared" si="23"/>
-        <v>1.9000000001215998</v>
+        <v>2.4666666668245334</v>
       </c>
       <c r="N229" s="11">
         <v>0.25</v>
@@ -15672,7 +15636,7 @@
         <v>44874</v>
       </c>
       <c r="C230" s="18">
-        <v>0.67638888888888893</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="D230">
         <v>33</v>
@@ -15700,11 +15664,11 @@
         <v>17</v>
       </c>
       <c r="L230" s="23">
-        <v>1.6782407407407406E-3</v>
+        <v>1.3194444444444443E-3</v>
       </c>
       <c r="M230" s="32">
         <f t="shared" si="23"/>
-        <v>2.416666666821333</v>
+        <v>1.9000000001215998</v>
       </c>
       <c r="N230" s="11">
         <v>0.25</v>
@@ -15745,7 +15709,7 @@
         <v>44874</v>
       </c>
       <c r="C231" s="18">
-        <v>0.6743055555555556</v>
+        <v>0.67638888888888893</v>
       </c>
       <c r="D231">
         <v>33</v>
@@ -15754,7 +15718,7 @@
         <v>181</v>
       </c>
       <c r="F231" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
         <v>92</v>
@@ -15773,11 +15737,11 @@
         <v>17</v>
       </c>
       <c r="L231" s="23">
-        <v>2.3148148148148151E-3</v>
+        <v>1.6782407407407406E-3</v>
       </c>
       <c r="M231" s="32">
         <f t="shared" si="23"/>
-        <v>3.3333333335466673</v>
+        <v>2.416666666821333</v>
       </c>
       <c r="N231" s="11">
         <v>0.25</v>
@@ -15792,7 +15756,7 @@
         <v>180</v>
       </c>
       <c r="R231" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S231">
         <f t="shared" si="21"/>
@@ -15815,42 +15779,72 @@
         <v>231</v>
       </c>
       <c r="B232" s="31">
-        <v>44857</v>
+        <v>44874</v>
+      </c>
+      <c r="C232" s="18">
+        <v>0.6743055555555556</v>
       </c>
       <c r="D232">
-        <v>34</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E232" t="s">
+        <v>181</v>
       </c>
       <c r="F232" t="s">
+        <v>61</v>
+      </c>
+      <c r="G232" t="s">
         <v>92</v>
       </c>
-      <c r="G232" t="s">
-        <v>24</v>
-      </c>
       <c r="H232">
-        <v>980</v>
+        <v>78</v>
       </c>
       <c r="I232">
-        <v>252.8</v>
+        <v>113</v>
       </c>
       <c r="J232">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="K232">
         <f t="shared" si="20"/>
-        <v>24.199999999999989</v>
+        <v>17</v>
       </c>
       <c r="L232" s="23">
-        <v>5.5555555555555558E-3</v>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="M232" s="32">
         <f t="shared" si="23"/>
-        <v>8.0000000005120011</v>
-      </c>
-      <c r="N232" s="11"/>
-      <c r="V232" s="28"/>
+        <v>3.3333333335466673</v>
+      </c>
+      <c r="N232" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>3</v>
+      </c>
+      <c r="Q232">
+        <v>180</v>
+      </c>
+      <c r="R232" s="7">
+        <v>14</v>
+      </c>
+      <c r="S232">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="T232" t="s">
+        <v>211</v>
+      </c>
+      <c r="U232">
+        <f t="shared" si="22"/>
+        <v>67</v>
+      </c>
+      <c r="V232" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
@@ -15858,41 +15852,42 @@
         <v>232</v>
       </c>
       <c r="B233" s="31">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="D233">
         <v>34</v>
       </c>
       <c r="E233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G233" t="s">
         <v>24</v>
       </c>
       <c r="H233">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="I233">
-        <v>336</v>
+        <v>252.8</v>
       </c>
       <c r="J233">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="K233">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>24.199999999999989</v>
       </c>
       <c r="L233" s="23">
-        <v>4.8611111111111112E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="M233" s="32">
         <f t="shared" si="23"/>
-        <v>7.0000000004479999</v>
+        <v>8.0000000005120011</v>
       </c>
       <c r="N233" s="11"/>
+      <c r="V233" s="28"/>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
@@ -15909,7 +15904,7 @@
         <v>2</v>
       </c>
       <c r="F234" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G234" t="s">
         <v>24</v>
@@ -15921,18 +15916,18 @@
         <v>336</v>
       </c>
       <c r="J234">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="K234">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L234" s="23">
-        <v>6.9444444444444441E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="M234" s="32">
         <f t="shared" si="23"/>
-        <v>10.00000000064</v>
+        <v>7.0000000004479999</v>
       </c>
       <c r="N234" s="11"/>
     </row>
@@ -15942,32 +15937,39 @@
         <v>234</v>
       </c>
       <c r="B235" s="31">
-        <v>44858</v>
+        <v>44856</v>
       </c>
       <c r="D235">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="G235" t="s">
         <v>24</v>
       </c>
       <c r="H235">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="I235">
-        <v>204.4</v>
+        <v>336</v>
       </c>
       <c r="J235">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="K235">
         <f t="shared" si="20"/>
-        <v>3.5999999999999943</v>
+        <v>2</v>
+      </c>
+      <c r="L235" s="23">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M235" s="32">
+        <f t="shared" si="23"/>
+        <v>10.00000000064</v>
       </c>
       <c r="N235" s="11"/>
     </row>
@@ -15983,33 +15985,26 @@
         <v>35</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
         <v>24</v>
       </c>
       <c r="H236">
-        <v>562</v>
+        <v>684</v>
       </c>
       <c r="I236">
-        <v>171.10000000000002</v>
+        <v>204.4</v>
       </c>
       <c r="J236">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="K236">
-        <f t="shared" ref="K236:K267" si="24">IF(ABS(I236-J236)&gt;180,360-ABS(I236-J236),ABS(I236-J236))</f>
-        <v>4.1000000000000227</v>
-      </c>
-      <c r="L236" s="23">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M236" s="32">
-        <f t="shared" si="23"/>
-        <v>5.00000000032</v>
+        <f t="shared" si="20"/>
+        <v>3.5999999999999943</v>
       </c>
       <c r="N236" s="11"/>
     </row>
@@ -16019,42 +16014,39 @@
         <v>236</v>
       </c>
       <c r="B237" s="31">
-        <v>44770</v>
-      </c>
-      <c r="C237" s="18">
-        <v>0.43055555555555558</v>
+        <v>44858</v>
       </c>
       <c r="D237">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F237" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G237" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="H237">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="I237">
-        <v>163</v>
+        <v>171.10000000000002</v>
       </c>
       <c r="J237">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K237">
-        <f t="shared" si="24"/>
-        <v>7</v>
+        <f t="shared" ref="K237:K268" si="24">IF(ABS(I237-J237)&gt;180,360-ABS(I237-J237),ABS(I237-J237))</f>
+        <v>4.1000000000000227</v>
       </c>
       <c r="L237" s="23">
-        <v>3.1249999999999997E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="M237" s="32">
         <f t="shared" si="23"/>
-        <v>4.5000000002879998</v>
+        <v>5.00000000032</v>
       </c>
       <c r="N237" s="11"/>
     </row>
@@ -16067,32 +16059,39 @@
         <v>44770</v>
       </c>
       <c r="C238" s="18">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D238">
         <v>36</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G238" t="s">
         <v>169</v>
       </c>
       <c r="H238">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="I238">
-        <v>94.300000000000011</v>
+        <v>163</v>
       </c>
       <c r="J238">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K238">
         <f t="shared" si="24"/>
-        <v>4.3000000000000114</v>
+        <v>7</v>
+      </c>
+      <c r="L238" s="23">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="M238" s="32">
+        <f t="shared" si="23"/>
+        <v>4.5000000002879998</v>
       </c>
       <c r="N238" s="11"/>
     </row>
@@ -16102,47 +16101,37 @@
         <v>238</v>
       </c>
       <c r="B239" s="31">
-        <v>44853</v>
+        <v>44770</v>
       </c>
       <c r="C239" s="18">
-        <v>0.59583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D239">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G239" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="H239">
-        <v>691</v>
+        <v>412</v>
       </c>
       <c r="I239">
-        <v>171.60000000000002</v>
+        <v>94.300000000000011</v>
       </c>
       <c r="J239">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K239">
         <f t="shared" si="24"/>
-        <v>11.600000000000023</v>
-      </c>
-      <c r="L239" s="28">
-        <v>4.3981481481481484E-3</v>
-      </c>
-      <c r="M239" s="32">
-        <f t="shared" si="23"/>
-        <v>6.3333333337386675</v>
+        <v>4.3000000000000114</v>
       </c>
       <c r="N239" s="11"/>
-      <c r="R239" s="7">
-        <v>20</v>
-      </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
@@ -16153,7 +16142,7 @@
         <v>44853</v>
       </c>
       <c r="C240" s="18">
-        <v>0.6</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="D240">
         <v>37</v>
@@ -16162,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G240" t="s">
         <v>236</v>
@@ -16174,18 +16163,18 @@
         <v>171.60000000000002</v>
       </c>
       <c r="J240">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K240">
         <f t="shared" si="24"/>
-        <v>21.600000000000023</v>
+        <v>11.600000000000023</v>
       </c>
       <c r="L240" s="28">
-        <v>4.5138888888888893E-3</v>
+        <v>4.3981481481481484E-3</v>
       </c>
       <c r="M240" s="32">
         <f t="shared" si="23"/>
-        <v>6.5000000004160006</v>
+        <v>6.3333333337386675</v>
       </c>
       <c r="N240" s="11"/>
       <c r="R240" s="7">
@@ -16198,44 +16187,47 @@
         <v>240</v>
       </c>
       <c r="B241" s="31">
-        <v>44854</v>
+        <v>44853</v>
       </c>
       <c r="C241" s="18">
-        <v>0.60277777777777775</v>
+        <v>0.6</v>
       </c>
       <c r="D241">
         <v>37</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G241" t="s">
         <v>236</v>
       </c>
       <c r="H241">
-        <v>412</v>
+        <v>691</v>
       </c>
       <c r="I241">
-        <v>178.5</v>
+        <v>171.60000000000002</v>
       </c>
       <c r="J241">
         <v>150</v>
       </c>
       <c r="K241">
         <f t="shared" si="24"/>
-        <v>28.5</v>
+        <v>21.600000000000023</v>
       </c>
       <c r="L241" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>4.5138888888888893E-3</v>
       </c>
       <c r="M241" s="32">
         <f t="shared" si="23"/>
-        <v>4.0000000002560006</v>
+        <v>6.5000000004160006</v>
       </c>
       <c r="N241" s="11"/>
+      <c r="R241" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
@@ -16243,72 +16235,44 @@
         <v>241</v>
       </c>
       <c r="B242" s="31">
-        <v>44868</v>
+        <v>44854</v>
       </c>
       <c r="C242" s="18">
-        <v>0.49305555555555558</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="D242">
-        <v>38</v>
-      </c>
-      <c r="E242" t="s">
-        <v>196</v>
+        <v>37</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
       </c>
       <c r="F242" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G242" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="H242">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="I242">
-        <v>293</v>
+        <v>178.5</v>
       </c>
       <c r="J242">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="K242">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L242" s="23">
-        <v>5.5902777777777782E-3</v>
+        <v>28.5</v>
+      </c>
+      <c r="L242" s="28">
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M242" s="32">
         <f t="shared" si="23"/>
-        <v>8.050000000515201</v>
-      </c>
-      <c r="N242" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="O242">
-        <v>0</v>
-      </c>
-      <c r="P242">
-        <v>3</v>
-      </c>
-      <c r="Q242">
-        <v>180</v>
-      </c>
-      <c r="R242" s="7">
-        <v>14</v>
-      </c>
-      <c r="S242">
-        <f t="shared" si="21"/>
-        <v>113</v>
-      </c>
-      <c r="T242" t="s">
-        <v>211</v>
-      </c>
-      <c r="U242">
-        <f t="shared" si="22"/>
-        <v>113</v>
-      </c>
-      <c r="V242" t="s">
-        <v>211</v>
-      </c>
+        <v>4.0000000002560006</v>
+      </c>
+      <c r="N242" s="11"/>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
@@ -16319,7 +16283,7 @@
         <v>44868</v>
       </c>
       <c r="C243" s="18">
-        <v>0.50347222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D243">
         <v>38</v>
@@ -16347,11 +16311,11 @@
         <v>0</v>
       </c>
       <c r="L243" s="23">
-        <v>3.4606481481481485E-3</v>
+        <v>5.5902777777777782E-3</v>
       </c>
       <c r="M243" s="32">
         <f t="shared" si="23"/>
-        <v>4.9833333336522676</v>
+        <v>8.050000000515201</v>
       </c>
       <c r="N243" s="11">
         <v>0.8</v>
@@ -16392,7 +16356,7 @@
         <v>44868</v>
       </c>
       <c r="C244" s="18">
-        <v>0.50694444444444442</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D244">
         <v>38</v>
@@ -16420,14 +16384,14 @@
         <v>0</v>
       </c>
       <c r="L244" s="23">
-        <v>3.2175925925925926E-3</v>
+        <v>3.4606481481481485E-3</v>
       </c>
       <c r="M244" s="32">
         <f t="shared" si="23"/>
-        <v>4.6333333336298672</v>
+        <v>4.9833333336522676</v>
       </c>
       <c r="N244" s="11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O244">
         <v>0</v>
@@ -16465,7 +16429,7 @@
         <v>44868</v>
       </c>
       <c r="C245" s="18">
-        <v>0.51041666666666663</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D245">
         <v>38</v>
@@ -16493,11 +16457,11 @@
         <v>0</v>
       </c>
       <c r="L245" s="23">
-        <v>1.1574074074074073E-3</v>
+        <v>3.2175925925925926E-3</v>
       </c>
       <c r="M245" s="32">
         <f t="shared" si="23"/>
-        <v>1.6666666667733332</v>
+        <v>4.6333333336298672</v>
       </c>
       <c r="N245" s="11">
         <v>0.5</v>
@@ -16538,7 +16502,7 @@
         <v>44868</v>
       </c>
       <c r="C246" s="18">
-        <v>0.51388888888888895</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D246">
         <v>38</v>
@@ -16566,14 +16530,14 @@
         <v>0</v>
       </c>
       <c r="L246" s="23">
-        <v>1.423611111111111E-3</v>
+        <v>1.1574074074074073E-3</v>
       </c>
       <c r="M246" s="32">
         <f t="shared" si="23"/>
-        <v>2.0500000001311998</v>
+        <v>1.6666666667733332</v>
       </c>
       <c r="N246" s="11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O246">
         <v>0</v>
@@ -16611,7 +16575,7 @@
         <v>44868</v>
       </c>
       <c r="C247" s="18">
-        <v>0.52083333333333337</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D247">
         <v>38</v>
@@ -16620,7 +16584,7 @@
         <v>196</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G247" t="s">
         <v>92</v>
@@ -16639,11 +16603,11 @@
         <v>0</v>
       </c>
       <c r="L247" s="23">
-        <v>7.1759259259259259E-3</v>
+        <v>1.423611111111111E-3</v>
       </c>
       <c r="M247" s="32">
         <f t="shared" si="23"/>
-        <v>10.333333333994666</v>
+        <v>2.0500000001311998</v>
       </c>
       <c r="N247" s="11">
         <v>0.25</v>
@@ -16684,7 +16648,7 @@
         <v>44868</v>
       </c>
       <c r="C248" s="18">
-        <v>0.53402777777777777</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D248">
         <v>38</v>
@@ -16712,14 +16676,14 @@
         <v>0</v>
       </c>
       <c r="L248" s="23">
-        <v>8.564814814814815E-3</v>
+        <v>7.1759259259259259E-3</v>
       </c>
       <c r="M248" s="32">
         <f t="shared" si="23"/>
-        <v>12.333333334122667</v>
+        <v>10.333333333994666</v>
       </c>
       <c r="N248" s="11">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="O248">
         <v>0</v>
@@ -16757,7 +16721,7 @@
         <v>44868</v>
       </c>
       <c r="C249" s="18">
-        <v>0.53888888888888886</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="D249">
         <v>38</v>
@@ -16785,11 +16749,11 @@
         <v>0</v>
       </c>
       <c r="L249" s="23">
-        <v>4.3981481481481484E-3</v>
+        <v>8.564814814814815E-3</v>
       </c>
       <c r="M249" s="32">
         <f t="shared" si="23"/>
-        <v>6.3333333337386675</v>
+        <v>12.333333334122667</v>
       </c>
       <c r="N249" s="11">
         <v>0.6</v>
@@ -16804,7 +16768,7 @@
         <v>180</v>
       </c>
       <c r="R249" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S249">
         <f t="shared" si="21"/>
@@ -16830,7 +16794,7 @@
         <v>44868</v>
       </c>
       <c r="C250" s="18">
-        <v>0.5444444444444444</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="D250">
         <v>38</v>
@@ -16858,14 +16822,14 @@
         <v>0</v>
       </c>
       <c r="L250" s="23">
-        <v>2.6967592592592594E-3</v>
+        <v>4.3981481481481484E-3</v>
       </c>
       <c r="M250" s="32">
         <f t="shared" si="23"/>
-        <v>3.8833333335818669</v>
+        <v>6.3333333337386675</v>
       </c>
       <c r="N250" s="11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="O250">
         <v>0</v>
@@ -16903,7 +16867,7 @@
         <v>44868</v>
       </c>
       <c r="C251" s="18">
-        <v>0.54791666666666672</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="D251">
         <v>38</v>
@@ -16931,14 +16895,14 @@
         <v>0</v>
       </c>
       <c r="L251" s="23">
-        <v>2.9861111111111113E-3</v>
+        <v>2.6967592592592594E-3</v>
       </c>
       <c r="M251" s="32">
         <f t="shared" si="23"/>
-        <v>4.3000000002752001</v>
+        <v>3.8833333335818669</v>
       </c>
       <c r="N251" s="11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O251">
         <v>0</v>
@@ -16976,7 +16940,7 @@
         <v>44868</v>
       </c>
       <c r="C252" s="18">
-        <v>0.55277777777777781</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="D252">
         <v>38</v>
@@ -17004,11 +16968,11 @@
         <v>0</v>
       </c>
       <c r="L252" s="23">
-        <v>3.2986111111111111E-3</v>
+        <v>2.9861111111111113E-3</v>
       </c>
       <c r="M252" s="32">
         <f t="shared" si="23"/>
-        <v>4.7500000003040004</v>
+        <v>4.3000000002752001</v>
       </c>
       <c r="N252" s="11">
         <v>1</v>
@@ -17046,10 +17010,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="31">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="C253" s="18">
-        <v>0.59305555555555556</v>
+        <v>0.55277777777777781</v>
       </c>
       <c r="D253">
         <v>38</v>
@@ -17077,37 +17041,37 @@
         <v>0</v>
       </c>
       <c r="L253" s="23">
-        <v>3.2407407407407406E-3</v>
+        <v>3.2986111111111111E-3</v>
       </c>
       <c r="M253" s="32">
         <f t="shared" si="23"/>
-        <v>4.6666666669653329</v>
+        <v>4.7500000003040004</v>
       </c>
       <c r="N253" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O253">
         <v>0</v>
       </c>
       <c r="P253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q253">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="R253" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S253">
         <f t="shared" si="21"/>
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="T253" t="s">
         <v>211</v>
       </c>
       <c r="U253">
         <f t="shared" si="22"/>
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="V253" t="s">
         <v>211</v>
@@ -17122,7 +17086,7 @@
         <v>44876</v>
       </c>
       <c r="C254" s="18">
-        <v>0.59583333333333333</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="D254">
         <v>38</v>
@@ -17150,11 +17114,11 @@
         <v>0</v>
       </c>
       <c r="L254" s="23">
-        <v>1.5277777777777779E-3</v>
+        <v>3.2407407407407406E-3</v>
       </c>
       <c r="M254" s="32">
         <f t="shared" si="23"/>
-        <v>2.2000000001408</v>
+        <v>4.6666666669653329</v>
       </c>
       <c r="N254" s="11">
         <v>0.8</v>
@@ -17195,7 +17159,7 @@
         <v>44876</v>
       </c>
       <c r="C255" s="18">
-        <v>0.59930555555555554</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="D255">
         <v>38</v>
@@ -17204,7 +17168,7 @@
         <v>196</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
         <v>92</v>
@@ -17223,11 +17187,11 @@
         <v>0</v>
       </c>
       <c r="L255" s="23">
-        <v>1.0995370370370371E-3</v>
+        <v>1.5277777777777779E-3</v>
       </c>
       <c r="M255" s="32">
         <f t="shared" si="23"/>
-        <v>1.5833333334346669</v>
+        <v>2.2000000001408</v>
       </c>
       <c r="N255" s="11">
         <v>0.8</v>
@@ -17245,7 +17209,7 @@
         <v>13</v>
       </c>
       <c r="S255">
-        <f t="shared" ref="S255:S276" si="25">IF(ABS(J255-Q255)&gt;180,360-ABS(J255-Q255),ABS(J255-Q255))</f>
+        <f t="shared" si="21"/>
         <v>83</v>
       </c>
       <c r="T255" t="s">
@@ -17268,7 +17232,7 @@
         <v>44876</v>
       </c>
       <c r="C256" s="18">
-        <v>0.60138888888888886</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="D256">
         <v>38</v>
@@ -17277,7 +17241,7 @@
         <v>196</v>
       </c>
       <c r="F256" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G256" t="s">
         <v>92</v>
@@ -17296,11 +17260,11 @@
         <v>0</v>
       </c>
       <c r="L256" s="23">
-        <v>3.8194444444444443E-3</v>
+        <v>1.0995370370370371E-3</v>
       </c>
       <c r="M256" s="32">
         <f t="shared" si="23"/>
-        <v>5.5000000003520002</v>
+        <v>1.5833333334346669</v>
       </c>
       <c r="N256" s="11">
         <v>0.8</v>
@@ -17318,7 +17282,7 @@
         <v>13</v>
       </c>
       <c r="S256">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="S256:S277" si="25">IF(ABS(J256-Q256)&gt;180,360-ABS(J256-Q256),ABS(J256-Q256))</f>
         <v>83</v>
       </c>
       <c r="T256" t="s">
@@ -17341,7 +17305,7 @@
         <v>44876</v>
       </c>
       <c r="C257" s="18">
-        <v>0.60625000000000007</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="D257">
         <v>38</v>
@@ -17369,11 +17333,11 @@
         <v>0</v>
       </c>
       <c r="L257" s="23">
-        <v>3.0902777777777782E-3</v>
+        <v>3.8194444444444443E-3</v>
       </c>
       <c r="M257" s="32">
         <f t="shared" si="23"/>
-        <v>4.4500000002848008</v>
+        <v>5.5000000003520002</v>
       </c>
       <c r="N257" s="11">
         <v>0.8</v>
@@ -17414,7 +17378,7 @@
         <v>44876</v>
       </c>
       <c r="C258" s="18">
-        <v>0.60833333333333328</v>
+        <v>0.60625000000000007</v>
       </c>
       <c r="D258">
         <v>38</v>
@@ -17423,7 +17387,7 @@
         <v>196</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
         <v>92</v>
@@ -17442,11 +17406,11 @@
         <v>0</v>
       </c>
       <c r="L258" s="23">
-        <v>1.2037037037037038E-3</v>
+        <v>3.0902777777777782E-3</v>
       </c>
       <c r="M258" s="32">
         <f t="shared" si="23"/>
-        <v>1.7333333334442669</v>
+        <v>4.4500000002848008</v>
       </c>
       <c r="N258" s="11">
         <v>0.8</v>
@@ -17471,7 +17435,7 @@
         <v>211</v>
       </c>
       <c r="U258">
-        <f t="shared" ref="U258:U276" si="26">IF(ABS(I258-Q258)&gt;180,360-ABS(I258-Q258),ABS(I258-Q258))</f>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="V258" t="s">
@@ -17487,7 +17451,7 @@
         <v>44876</v>
       </c>
       <c r="C259" s="18">
-        <v>0.60902777777777783</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="D259">
         <v>38</v>
@@ -17496,7 +17460,7 @@
         <v>196</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G259" t="s">
         <v>92</v>
@@ -17515,11 +17479,11 @@
         <v>0</v>
       </c>
       <c r="L259" s="23">
-        <v>1.8981481481481482E-3</v>
+        <v>1.2037037037037038E-3</v>
       </c>
       <c r="M259" s="32">
         <f t="shared" si="23"/>
-        <v>2.7333333335082668</v>
+        <v>1.7333333334442669</v>
       </c>
       <c r="N259" s="11">
         <v>0.8</v>
@@ -17544,7 +17508,7 @@
         <v>211</v>
       </c>
       <c r="U259">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="U259:U277" si="26">IF(ABS(I259-Q259)&gt;180,360-ABS(I259-Q259),ABS(I259-Q259))</f>
         <v>83</v>
       </c>
       <c r="V259" t="s">
@@ -17560,7 +17524,7 @@
         <v>44876</v>
       </c>
       <c r="C260" s="18">
-        <v>0.61111111111111105</v>
+        <v>0.60902777777777783</v>
       </c>
       <c r="D260">
         <v>38</v>
@@ -17588,11 +17552,11 @@
         <v>0</v>
       </c>
       <c r="L260" s="23">
-        <v>1.0995370370370371E-3</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="M260" s="32">
         <f t="shared" si="23"/>
-        <v>1.5833333334346669</v>
+        <v>2.7333333335082668</v>
       </c>
       <c r="N260" s="11">
         <v>0.8</v>
@@ -17626,14 +17590,14 @@
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f t="shared" ref="A261:A284" si="27">A260+1</f>
+        <f t="shared" ref="A261:A285" si="27">A260+1</f>
         <v>260</v>
       </c>
       <c r="B261" s="31">
         <v>44876</v>
       </c>
       <c r="C261" s="18">
-        <v>0.61458333333333337</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D261">
         <v>38</v>
@@ -17661,11 +17625,11 @@
         <v>0</v>
       </c>
       <c r="L261" s="23">
-        <v>1.1574074074074073E-3</v>
+        <v>1.0995370370370371E-3</v>
       </c>
       <c r="M261" s="32">
         <f t="shared" si="23"/>
-        <v>1.6666666667733332</v>
+        <v>1.5833333334346669</v>
       </c>
       <c r="N261" s="11">
         <v>0.8</v>
@@ -17706,7 +17670,7 @@
         <v>44876</v>
       </c>
       <c r="C262" s="18">
-        <v>0.6166666666666667</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="D262">
         <v>38</v>
@@ -17734,11 +17698,11 @@
         <v>0</v>
       </c>
       <c r="L262" s="23">
-        <v>9.2592592592592585E-4</v>
+        <v>1.1574074074074073E-3</v>
       </c>
       <c r="M262" s="32">
         <f t="shared" si="23"/>
-        <v>1.3333333334186666</v>
+        <v>1.6666666667733332</v>
       </c>
       <c r="N262" s="11">
         <v>0.8</v>
@@ -17776,16 +17740,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="31">
-        <v>44883</v>
+        <v>44876</v>
       </c>
       <c r="C263" s="18">
-        <v>0.49444444444444446</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D263">
         <v>38</v>
       </c>
       <c r="E263" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F263" t="s">
         <v>46</v>
@@ -17794,53 +17758,53 @@
         <v>92</v>
       </c>
       <c r="H263">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="J263">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="K263">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L263" s="23">
-        <v>6.053240740740741E-3</v>
+        <v>9.2592592592592585E-4</v>
       </c>
       <c r="M263" s="32">
         <f t="shared" si="23"/>
-        <v>8.7166666672245334</v>
+        <v>1.3333333334186666</v>
       </c>
       <c r="N263" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
         <v>1</v>
-      </c>
-      <c r="O263">
-        <v>1</v>
-      </c>
-      <c r="P263">
-        <v>2</v>
       </c>
       <c r="Q263">
         <v>210</v>
       </c>
       <c r="R263" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S263">
         <f t="shared" si="25"/>
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="T263" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U263">
         <f t="shared" si="26"/>
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="V263" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.3">
@@ -17852,7 +17816,7 @@
         <v>44883</v>
       </c>
       <c r="C264" s="18">
-        <v>0.50138888888888888</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="D264">
         <v>38</v>
@@ -17880,11 +17844,11 @@
         <v>7</v>
       </c>
       <c r="L264" s="23">
-        <v>1.4699074074074074E-3</v>
+        <v>6.053240740740741E-3</v>
       </c>
       <c r="M264" s="32">
         <f t="shared" si="23"/>
-        <v>2.1166666668021334</v>
+        <v>8.7166666672245334</v>
       </c>
       <c r="N264" s="11">
         <v>1</v>
@@ -17925,7 +17889,7 @@
         <v>44883</v>
       </c>
       <c r="C265" s="18">
-        <v>0.50555555555555554</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="D265">
         <v>38</v>
@@ -17953,11 +17917,11 @@
         <v>7</v>
       </c>
       <c r="L265" s="23">
-        <v>2.6388888888888885E-3</v>
+        <v>1.4699074074074074E-3</v>
       </c>
       <c r="M265" s="32">
         <f t="shared" si="23"/>
-        <v>3.8000000002431995</v>
+        <v>2.1166666668021334</v>
       </c>
       <c r="N265" s="11">
         <v>1</v>
@@ -17995,68 +17959,68 @@
         <v>265</v>
       </c>
       <c r="B266" s="31">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C266" s="18">
-        <v>0.68819444444444444</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="D266">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E266" t="s">
         <v>195</v>
       </c>
       <c r="F266" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G266" t="s">
         <v>92</v>
       </c>
       <c r="H266">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I266">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J266">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K266">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L266" s="23">
-        <v>1.6435185185185183E-3</v>
+        <v>2.6388888888888885E-3</v>
       </c>
       <c r="M266" s="32">
         <f t="shared" si="23"/>
-        <v>2.3666666668181331</v>
+        <v>3.8000000002431995</v>
       </c>
       <c r="N266" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="O266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P266">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q266">
         <v>210</v>
       </c>
       <c r="R266" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S266">
         <f t="shared" si="25"/>
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="T266" t="s">
         <v>212</v>
       </c>
       <c r="U266">
         <f t="shared" si="26"/>
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="V266" t="s">
         <v>212</v>
@@ -18071,7 +18035,7 @@
         <v>44882</v>
       </c>
       <c r="C267" s="18">
-        <v>0.69236111111111109</v>
+        <v>0.68819444444444444</v>
       </c>
       <c r="D267">
         <v>39</v>
@@ -18099,11 +18063,11 @@
         <v>3</v>
       </c>
       <c r="L267" s="23">
-        <v>4.1319444444444442E-3</v>
+        <v>1.6435185185185183E-3</v>
       </c>
       <c r="M267" s="32">
         <f t="shared" si="23"/>
-        <v>5.9500000003807996</v>
+        <v>2.3666666668181331</v>
       </c>
       <c r="N267" s="11">
         <v>0.3</v>
@@ -18144,7 +18108,7 @@
         <v>44882</v>
       </c>
       <c r="C268" s="18">
-        <v>0.69444444444444453</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="D268">
         <v>39</v>
@@ -18168,15 +18132,15 @@
         <v>20</v>
       </c>
       <c r="K268">
-        <f t="shared" ref="K268:K284" si="28">IF(ABS(I268-J268)&gt;180,360-ABS(I268-J268),ABS(I268-J268))</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="L268" s="23">
-        <v>1.736111111111111E-3</v>
+        <v>4.1319444444444442E-3</v>
       </c>
       <c r="M268" s="32">
         <f t="shared" si="23"/>
-        <v>2.50000000016</v>
+        <v>5.9500000003807996</v>
       </c>
       <c r="N268" s="11">
         <v>0.3</v>
@@ -18217,7 +18181,7 @@
         <v>44882</v>
       </c>
       <c r="C269" s="18">
-        <v>0.6972222222222223</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="D269">
         <v>39</v>
@@ -18241,15 +18205,15 @@
         <v>20</v>
       </c>
       <c r="K269">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="K269:K285" si="28">IF(ABS(I269-J269)&gt;180,360-ABS(I269-J269),ABS(I269-J269))</f>
         <v>3</v>
       </c>
       <c r="L269" s="23">
-        <v>1.1805555555555556E-3</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="M269" s="32">
         <f t="shared" si="23"/>
-        <v>1.7000000001088</v>
+        <v>2.50000000016</v>
       </c>
       <c r="N269" s="11">
         <v>0.3</v>
@@ -18290,7 +18254,7 @@
         <v>44882</v>
       </c>
       <c r="C270" s="18">
-        <v>0.70208333333333339</v>
+        <v>0.6972222222222223</v>
       </c>
       <c r="D270">
         <v>39</v>
@@ -18318,11 +18282,11 @@
         <v>3</v>
       </c>
       <c r="L270" s="23">
-        <v>3.8310185185185183E-3</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="M270" s="32">
         <f t="shared" si="23"/>
-        <v>5.5166666670197335</v>
+        <v>1.7000000001088</v>
       </c>
       <c r="N270" s="11">
         <v>0.3</v>
@@ -18360,10 +18324,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="31">
-        <v>44883</v>
+        <v>44882</v>
       </c>
       <c r="C271" s="18">
-        <v>0.46875</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="D271">
         <v>39</v>
@@ -18391,26 +18355,26 @@
         <v>3</v>
       </c>
       <c r="L271" s="23">
-        <v>2.2569444444444447E-3</v>
+        <v>3.8310185185185183E-3</v>
       </c>
       <c r="M271" s="32">
-        <f t="shared" ref="M271:M284" si="29">L271/0.0006944444444</f>
-        <v>3.2500000002080003</v>
+        <f t="shared" si="23"/>
+        <v>5.5166666670197335</v>
       </c>
       <c r="N271" s="11">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P271">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q271">
         <v>210</v>
       </c>
       <c r="R271" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S271">
         <f t="shared" si="25"/>
@@ -18436,7 +18400,7 @@
         <v>44883</v>
       </c>
       <c r="C272" s="18">
-        <v>0.47430555555555554</v>
+        <v>0.46875</v>
       </c>
       <c r="D272">
         <v>39</v>
@@ -18464,11 +18428,11 @@
         <v>3</v>
       </c>
       <c r="L272" s="23">
-        <v>1.9560185185185184E-3</v>
+        <v>2.2569444444444447E-3</v>
       </c>
       <c r="M272" s="32">
-        <f t="shared" si="29"/>
-        <v>2.8166666668469333</v>
+        <f t="shared" ref="M272:M285" si="29">L272/0.0006944444444</f>
+        <v>3.2500000002080003</v>
       </c>
       <c r="N272" s="11">
         <v>1</v>
@@ -18509,7 +18473,7 @@
         <v>44883</v>
       </c>
       <c r="C273" s="18">
-        <v>0.4770833333333333</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="D273">
         <v>39</v>
@@ -18537,11 +18501,11 @@
         <v>3</v>
       </c>
       <c r="L273" s="23">
-        <v>1.5972222222222221E-3</v>
+        <v>1.9560185185185184E-3</v>
       </c>
       <c r="M273" s="32">
         <f t="shared" si="29"/>
-        <v>2.3000000001471999</v>
+        <v>2.8166666668469333</v>
       </c>
       <c r="N273" s="11">
         <v>1</v>
@@ -18582,7 +18546,7 @@
         <v>44883</v>
       </c>
       <c r="C274" s="18">
-        <v>0.47916666666666669</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="D274">
         <v>39</v>
@@ -18610,11 +18574,11 @@
         <v>3</v>
       </c>
       <c r="L274" s="23">
-        <v>2.488425925925926E-3</v>
+        <v>1.5972222222222221E-3</v>
       </c>
       <c r="M274" s="32">
         <f t="shared" si="29"/>
-        <v>3.5833333335626669</v>
+        <v>2.3000000001471999</v>
       </c>
       <c r="N274" s="11">
         <v>1</v>
@@ -18655,7 +18619,7 @@
         <v>44883</v>
       </c>
       <c r="C275" s="18">
-        <v>0.48194444444444445</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D275">
         <v>39</v>
@@ -18683,11 +18647,11 @@
         <v>3</v>
       </c>
       <c r="L275" s="23">
-        <v>3.1597222222222222E-3</v>
+        <v>2.488425925925926E-3</v>
       </c>
       <c r="M275" s="32">
         <f t="shared" si="29"/>
-        <v>4.5500000002911998</v>
+        <v>3.5833333335626669</v>
       </c>
       <c r="N275" s="11">
         <v>1</v>
@@ -18728,7 +18692,7 @@
         <v>44883</v>
       </c>
       <c r="C276" s="18">
-        <v>0.48888888888888887</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D276">
         <v>39</v>
@@ -18756,11 +18720,11 @@
         <v>3</v>
       </c>
       <c r="L276" s="23">
-        <v>5.6712962962962958E-3</v>
+        <v>3.1597222222222222E-3</v>
       </c>
       <c r="M276" s="32">
         <f t="shared" si="29"/>
-        <v>8.1666666671893324</v>
+        <v>4.5500000002911998</v>
       </c>
       <c r="N276" s="11">
         <v>1</v>
@@ -18798,44 +18762,72 @@
         <v>276</v>
       </c>
       <c r="B277" s="31">
-        <v>44866</v>
+        <v>44883</v>
       </c>
       <c r="C277" s="18">
-        <v>0.67361111111111116</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="D277">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E277" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F277" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G277" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="H277">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I277">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J277">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K277">
         <f t="shared" si="28"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L277" s="23">
-        <v>2.0138888888888888E-3</v>
+        <v>5.6712962962962958E-3</v>
       </c>
       <c r="M277" s="32">
         <f t="shared" si="29"/>
-        <v>2.9000000001855999</v>
-      </c>
-      <c r="N277" s="11"/>
+        <v>8.1666666671893324</v>
+      </c>
+      <c r="N277" s="11">
+        <v>1</v>
+      </c>
+      <c r="O277">
+        <v>1</v>
+      </c>
+      <c r="P277">
+        <v>2</v>
+      </c>
+      <c r="Q277">
+        <v>210</v>
+      </c>
+      <c r="R277" s="7">
+        <v>9</v>
+      </c>
+      <c r="S277">
+        <f t="shared" si="25"/>
+        <v>170</v>
+      </c>
+      <c r="T277" t="s">
+        <v>212</v>
+      </c>
+      <c r="U277">
+        <f t="shared" si="26"/>
+        <v>173</v>
+      </c>
+      <c r="V277" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
@@ -18846,7 +18838,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="18">
-        <v>0.6875</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D278">
         <v>40</v>
@@ -18874,11 +18866,11 @@
         <v>45</v>
       </c>
       <c r="L278" s="23">
-        <v>1.736111111111111E-3</v>
+        <v>2.0138888888888888E-3</v>
       </c>
       <c r="M278" s="32">
         <f t="shared" si="29"/>
-        <v>2.50000000016</v>
+        <v>2.9000000001855999</v>
       </c>
       <c r="N278" s="11"/>
     </row>
@@ -18888,42 +18880,42 @@
         <v>278</v>
       </c>
       <c r="B279" s="31">
-        <v>44872</v>
+        <v>44866</v>
       </c>
       <c r="C279" s="18">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D279">
         <v>40</v>
       </c>
       <c r="E279" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G279" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="H279">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="I279">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="J279">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K279">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L279" s="23">
-        <v>2.4305555555555556E-3</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="M279" s="32">
         <f t="shared" si="29"/>
-        <v>3.5000000002239999</v>
+        <v>2.50000000016</v>
       </c>
       <c r="N279" s="11"/>
     </row>
@@ -18936,7 +18928,7 @@
         <v>44872</v>
       </c>
       <c r="C280" s="18">
-        <v>0.61111111111111105</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D280">
         <v>40</v>
@@ -18948,7 +18940,7 @@
         <v>46</v>
       </c>
       <c r="G280" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="H280">
         <v>82</v>
@@ -18957,18 +18949,18 @@
         <v>240</v>
       </c>
       <c r="J280">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K280">
         <f t="shared" si="28"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L280" s="23">
-        <v>2.1296296296296298E-3</v>
+        <v>2.4305555555555556E-3</v>
       </c>
       <c r="M280" s="32">
         <f t="shared" si="29"/>
-        <v>3.0666666668629334</v>
+        <v>3.5000000002239999</v>
       </c>
       <c r="N280" s="11"/>
     </row>
@@ -18978,32 +18970,42 @@
         <v>280</v>
       </c>
       <c r="B281" s="31">
-        <v>44871</v>
+        <v>44872</v>
+      </c>
+      <c r="C281" s="18">
+        <v>0.61111111111111105</v>
       </c>
       <c r="D281">
         <v>40</v>
       </c>
       <c r="E281" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F281" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H281">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="I281">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="J281">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K281">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="L281" s="23">
+        <v>2.1296296296296298E-3</v>
+      </c>
+      <c r="M281" s="32">
+        <f t="shared" si="29"/>
+        <v>3.0666666668629334</v>
       </c>
       <c r="N281" s="11"/>
     </row>
@@ -19013,35 +19015,32 @@
         <v>281</v>
       </c>
       <c r="B282" s="31">
-        <v>44864</v>
-      </c>
-      <c r="C282" s="18">
-        <v>0.58333333333333337</v>
+        <v>44871</v>
       </c>
       <c r="D282">
         <v>40</v>
       </c>
       <c r="E282" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F282" t="s">
         <v>88</v>
       </c>
       <c r="G282" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="H282">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="I282">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K282">
         <f t="shared" si="28"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N282" s="11"/>
     </row>
@@ -19051,43 +19050,37 @@
         <v>282</v>
       </c>
       <c r="B283" s="31">
-        <v>44851</v>
+        <v>44864</v>
       </c>
       <c r="C283" s="18">
         <v>0.58333333333333337</v>
       </c>
       <c r="D283">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E283" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F283" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G283" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="H283">
-        <v>869</v>
+        <v>248</v>
       </c>
       <c r="I283">
-        <v>13.3</v>
+        <v>32</v>
       </c>
       <c r="J283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K283">
         <f t="shared" si="28"/>
-        <v>10.3</v>
-      </c>
-      <c r="L283" s="23">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="M283" s="32">
-        <f t="shared" si="29"/>
-        <v>6.0000000003840004</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N283" s="11"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
@@ -19104,7 +19097,7 @@
         <v>41</v>
       </c>
       <c r="E284" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="F284" t="s">
         <v>46</v>
@@ -19113,29 +19106,73 @@
         <v>224</v>
       </c>
       <c r="H284">
-        <v>1269</v>
+        <v>869</v>
       </c>
       <c r="I284">
-        <v>202</v>
+        <v>13.3</v>
       </c>
       <c r="J284">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="K284">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="L284" s="23">
-        <v>6.2499999999999995E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="M284" s="32">
         <f t="shared" si="29"/>
+        <v>6.0000000003840004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <f t="shared" si="27"/>
+        <v>284</v>
+      </c>
+      <c r="B285" s="31">
+        <v>44851</v>
+      </c>
+      <c r="C285" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D285">
+        <v>41</v>
+      </c>
+      <c r="E285" t="s">
+        <v>220</v>
+      </c>
+      <c r="F285" t="s">
+        <v>46</v>
+      </c>
+      <c r="G285" t="s">
+        <v>224</v>
+      </c>
+      <c r="H285">
+        <v>1269</v>
+      </c>
+      <c r="I285">
+        <v>202</v>
+      </c>
+      <c r="J285">
+        <v>212</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="L285" s="23">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="M285" s="32">
+        <f t="shared" si="29"/>
         <v>9.0000000005759997</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:V282">
-    <sortCondition ref="D2:D282"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:V283">
+    <sortCondition ref="D2:D283"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25146,11 +25183,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8506B509-6600-45F3-AE3A-12D2E3DBB896}">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="92" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V100" sqref="V100"/>
+    <sheetView zoomScale="92" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27463,7 +27500,7 @@
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="M34" s="32">
-        <f t="shared" ref="M34:M64" si="6">L34/0.0006944444444</f>
+        <f t="shared" ref="M34:M65" si="6">L34/0.0006944444444</f>
         <v>3.666666666901333</v>
       </c>
       <c r="N34" s="33">
@@ -28118,7 +28155,7 @@
         <v>50</v>
       </c>
       <c r="K46">
-        <f t="shared" ref="K46:K76" si="8">IF(ABS(I46-J46)&gt;180,360-ABS(I46-J46),ABS(I46-J46))</f>
+        <f t="shared" ref="K46:K77" si="8">IF(ABS(I46-J46)&gt;180,360-ABS(I46-J46),ABS(I46-J46))</f>
         <v>15.800000000000011</v>
       </c>
       <c r="L46" s="23">
@@ -29081,10 +29118,11 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
+        <f t="shared" ref="A65:A97" si="9">A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="5">
-        <v>44839</v>
+      <c r="B65" s="31">
+        <v>44840</v>
       </c>
       <c r="D65">
         <v>29</v>
@@ -29093,7 +29131,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s">
         <v>224</v>
@@ -29105,229 +29143,230 @@
         <v>88.2</v>
       </c>
       <c r="J65">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="K65">
         <f t="shared" si="8"/>
-        <v>40.799999999999997</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="L65" s="23">
-        <v>5.5555555555555558E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M65" s="32">
-        <f t="shared" ref="M65:M95" si="9">L65/0.0006944444444</f>
-        <v>8.0000000005120011</v>
+        <f t="shared" si="6"/>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N65" s="11"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>170</v>
+        <v>64</v>
+      </c>
+      <c r="B66" s="5">
+        <v>44839</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
         <v>224</v>
       </c>
       <c r="H66">
-        <v>197</v>
+        <v>619</v>
       </c>
       <c r="I66">
-        <v>35</v>
+        <v>88.2</v>
       </c>
       <c r="J66">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="K66">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="L66" s="28">
-        <v>2.0833333333333333E-3</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L66" s="23">
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="M66" s="32">
-        <f t="shared" si="9"/>
-        <v>3.0000000001920002</v>
+        <f t="shared" ref="M66:M96" si="10">L66/0.0006944444444</f>
+        <v>8.0000000005120011</v>
       </c>
       <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67">
         <v>30</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G67" t="s">
         <v>224</v>
       </c>
       <c r="H67">
-        <v>404</v>
+        <v>197</v>
       </c>
       <c r="I67">
-        <v>293.10000000000002</v>
+        <v>35</v>
       </c>
       <c r="J67">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="K67">
         <f t="shared" si="8"/>
-        <v>12.100000000000023</v>
+        <v>27</v>
       </c>
       <c r="L67" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="M67" s="32">
-        <f t="shared" si="9"/>
-        <v>4.0000000002560006</v>
+        <f t="shared" si="10"/>
+        <v>3.0000000001920002</v>
       </c>
       <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
-        <v>44844</v>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>171</v>
       </c>
       <c r="D68">
         <v>30</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G68" t="s">
         <v>224</v>
       </c>
       <c r="H68">
-        <v>503</v>
+        <v>404</v>
       </c>
       <c r="I68">
-        <v>295.60000000000002</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="J68">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K68">
         <f t="shared" si="8"/>
-        <v>7.6000000000000227</v>
+        <v>12.100000000000023</v>
       </c>
       <c r="L68" s="28">
-        <v>5.5555555555555558E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="9"/>
-        <v>8.0000000005120011</v>
+        <f t="shared" si="10"/>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N68" s="11"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>44814</v>
+        <v>44844</v>
       </c>
       <c r="D69">
         <v>30</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G69" t="s">
         <v>224</v>
       </c>
       <c r="H69">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="I69">
-        <v>261.2</v>
+        <v>295.60000000000002</v>
       </c>
       <c r="J69">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="K69">
         <f t="shared" si="8"/>
-        <v>23.199999999999989</v>
+        <v>7.6000000000000227</v>
       </c>
       <c r="L69" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="M69" s="32">
-        <f t="shared" si="9"/>
-        <v>4.0000000002560006</v>
+        <f t="shared" si="10"/>
+        <v>8.0000000005120011</v>
       </c>
       <c r="N69" s="11"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <f t="shared" si="9"/>
+        <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>44783</v>
+        <v>44814</v>
       </c>
       <c r="D70">
         <v>30</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G70" t="s">
         <v>224</v>
       </c>
       <c r="H70">
-        <v>939</v>
+        <v>493</v>
       </c>
       <c r="I70">
-        <v>227.1</v>
+        <v>261.2</v>
       </c>
       <c r="J70">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="K70">
         <f t="shared" si="8"/>
-        <v>26.099999999999994</v>
+        <v>23.199999999999989</v>
       </c>
       <c r="L70" s="28">
-        <v>4.8611111111111112E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M70" s="32">
-        <f t="shared" si="9"/>
-        <v>7.0000000004479999</v>
+        <f t="shared" si="10"/>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="5">
         <v>44783</v>
@@ -29336,158 +29375,127 @@
         <v>30</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="G71" t="s">
         <v>224</v>
       </c>
       <c r="H71">
-        <v>891</v>
+        <v>939</v>
       </c>
       <c r="I71">
-        <v>297.2</v>
+        <v>227.1</v>
       </c>
       <c r="J71">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="K71">
         <f t="shared" si="8"/>
-        <v>29.800000000000011</v>
+        <v>26.099999999999994</v>
       </c>
       <c r="L71" s="28">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="M71" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.0000000004479999</v>
       </c>
       <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="5">
-        <v>44814</v>
+        <v>44783</v>
       </c>
       <c r="D72">
         <v>30</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
         <v>224</v>
       </c>
       <c r="H72">
-        <v>504</v>
+        <v>891</v>
       </c>
       <c r="I72">
-        <v>295.8</v>
+        <v>297.2</v>
       </c>
       <c r="J72">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="K72">
         <f t="shared" si="8"/>
-        <v>20.199999999999989</v>
+        <v>29.800000000000011</v>
       </c>
       <c r="L72" s="28">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="M72" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.0000000004479999</v>
       </c>
       <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="5">
-        <v>44825</v>
-      </c>
-      <c r="C73" s="18">
-        <v>0.75138888888888899</v>
+        <v>44814</v>
       </c>
       <c r="D73">
-        <v>31</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G73" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="H73">
-        <v>1058</v>
+        <v>504</v>
       </c>
       <c r="I73">
-        <v>114.19999999999999</v>
+        <v>295.8</v>
       </c>
       <c r="J73">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="K73">
         <f t="shared" si="8"/>
-        <v>5.8000000000000114</v>
-      </c>
-      <c r="L73" s="23">
-        <v>5.6481481481481478E-3</v>
+        <v>20.199999999999989</v>
+      </c>
+      <c r="L73" s="28">
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="M73" s="32">
-        <f t="shared" si="9"/>
-        <v>8.1333333338538658</v>
-      </c>
-      <c r="N73" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>1.5</v>
-      </c>
-      <c r="Q73">
-        <v>110</v>
-      </c>
-      <c r="R73" s="7">
-        <v>20</v>
-      </c>
-      <c r="S73">
-        <f>IF(ABS(J73-Q73)&gt;180,360-ABS(J73-Q73),ABS(J73-Q73))</f>
-        <v>10</v>
-      </c>
-      <c r="T73" t="s">
-        <v>210</v>
-      </c>
-      <c r="U73">
-        <f t="shared" ref="U73:U93" si="10">IF(ABS(I73-Q73)&gt;180,360-ABS(I73-Q73),ABS(I73-Q73))</f>
-        <v>4.1999999999999886</v>
-      </c>
-      <c r="V73" t="s">
-        <v>210</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>7.0000000004479999</v>
+      </c>
+      <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="5">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="C74" s="18">
-        <v>0.625</v>
+        <v>0.75138888888888899</v>
       </c>
       <c r="D74">
         <v>31</v>
@@ -29496,10 +29504,10 @@
         <v>108</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G74" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="H74">
         <v>1058</v>
@@ -29515,227 +29523,228 @@
         <v>5.8000000000000114</v>
       </c>
       <c r="L74" s="23">
-        <v>4.7453703703703703E-3</v>
+        <v>5.6481481481481478E-3</v>
       </c>
       <c r="M74" s="32">
-        <f t="shared" si="9"/>
-        <v>6.8333333337706668</v>
-      </c>
-      <c r="N74" s="11"/>
+        <f t="shared" si="10"/>
+        <v>8.1333333338538658</v>
+      </c>
+      <c r="N74" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1.5</v>
+      </c>
+      <c r="Q74">
+        <v>110</v>
+      </c>
+      <c r="R74" s="7">
+        <v>20</v>
+      </c>
+      <c r="S74">
+        <f>IF(ABS(J74-Q74)&gt;180,360-ABS(J74-Q74),ABS(J74-Q74))</f>
+        <v>10</v>
+      </c>
+      <c r="T74" t="s">
+        <v>210</v>
+      </c>
+      <c r="U74">
+        <f t="shared" ref="U74:U94" si="11">IF(ABS(I74-Q74)&gt;180,360-ABS(I74-Q74),ABS(I74-Q74))</f>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="V74" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
       <c r="B75" s="5">
-        <v>44834</v>
+        <v>44822</v>
       </c>
       <c r="C75" s="18">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="D75">
         <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
         <v>184</v>
       </c>
       <c r="H75">
-        <v>846</v>
+        <v>1058</v>
       </c>
       <c r="I75">
-        <v>151.80000000000001</v>
+        <v>114.19999999999999</v>
       </c>
       <c r="J75">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K75">
         <f t="shared" si="8"/>
-        <v>16.800000000000011</v>
+        <v>5.8000000000000114</v>
       </c>
       <c r="L75" s="23">
-        <v>4.1666666666666666E-3</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="M75" s="32">
-        <f t="shared" si="9"/>
-        <v>6.0000000003840004</v>
+        <f t="shared" si="10"/>
+        <v>6.8333333337706668</v>
       </c>
       <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="5">
-        <v>44853</v>
+        <v>44834</v>
       </c>
       <c r="C76" s="18">
-        <v>0.73958333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="D76">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="G76" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H76">
-        <v>448</v>
+        <v>846</v>
       </c>
       <c r="I76">
-        <v>48.399999999999977</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="J76">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="K76">
         <f t="shared" si="8"/>
-        <v>13.399999999999977</v>
+        <v>16.800000000000011</v>
       </c>
       <c r="L76" s="23">
-        <v>2.5462962962962961E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="M76" s="32">
-        <f t="shared" si="9"/>
-        <v>3.666666666901333</v>
+        <f t="shared" si="10"/>
+        <v>6.0000000003840004</v>
       </c>
       <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="5">
-        <v>44855</v>
+        <v>44853</v>
       </c>
       <c r="C77" s="18">
-        <v>0.5625</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="D77">
         <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
         <v>168</v>
       </c>
       <c r="H77">
-        <v>241</v>
+        <v>448</v>
       </c>
       <c r="I77">
-        <v>73</v>
+        <v>48.399999999999977</v>
       </c>
       <c r="J77">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K77">
-        <f t="shared" ref="K77:K97" si="11">IF(ABS(I77-J77)&gt;180,360-ABS(I77-J77),ABS(I77-J77))</f>
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>13.399999999999977</v>
       </c>
       <c r="L77" s="23">
-        <v>2.7777777777777779E-3</v>
+        <v>2.5462962962962961E-3</v>
       </c>
       <c r="M77" s="32">
-        <f t="shared" si="9"/>
-        <v>4.0000000002560006</v>
+        <f t="shared" si="10"/>
+        <v>3.666666666901333</v>
       </c>
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78" s="5">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="C78" s="18">
-        <v>0.65</v>
+        <v>0.5625</v>
       </c>
       <c r="D78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78">
+        <v>241</v>
+      </c>
+      <c r="I78">
+        <v>73</v>
+      </c>
+      <c r="J78">
         <v>46</v>
       </c>
-      <c r="G78" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78">
-        <v>78</v>
-      </c>
-      <c r="I78">
-        <v>113</v>
-      </c>
-      <c r="J78">
-        <v>130</v>
-      </c>
       <c r="K78">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" ref="K78:K98" si="12">IF(ABS(I78-J78)&gt;180,360-ABS(I78-J78),ABS(I78-J78))</f>
+        <v>27</v>
       </c>
       <c r="L78" s="23">
-        <v>1.5509259259259261E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M78" s="32">
-        <f t="shared" si="9"/>
-        <v>2.2333333334762671</v>
-      </c>
-      <c r="N78" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>3</v>
-      </c>
-      <c r="Q78">
-        <v>180</v>
-      </c>
-      <c r="R78" s="7">
-        <v>13</v>
-      </c>
-      <c r="S78">
-        <f>IF(ABS(J78-Q78)&gt;180,360-ABS(J78-Q78),ABS(J78-Q78))</f>
-        <v>50</v>
-      </c>
-      <c r="T78" t="s">
-        <v>211</v>
-      </c>
-      <c r="U78">
         <f t="shared" si="10"/>
-        <v>67</v>
-      </c>
-      <c r="V78" t="s">
-        <v>211</v>
-      </c>
+        <v>4.0000000002560006</v>
+      </c>
+      <c r="N78" s="11"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" s="5">
         <v>44874</v>
       </c>
       <c r="C79" s="18">
-        <v>0.64861111111111114</v>
+        <v>0.65</v>
       </c>
       <c r="D79">
         <v>33</v>
@@ -29744,7 +29753,7 @@
         <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
         <v>92</v>
@@ -29759,15 +29768,15 @@
         <v>130</v>
       </c>
       <c r="K79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="L79" s="23">
-        <v>8.9120370370370362E-4</v>
+        <v>1.5509259259259261E-3</v>
       </c>
       <c r="M79" s="32">
-        <f t="shared" si="9"/>
-        <v>1.2833333334154666</v>
+        <f t="shared" si="10"/>
+        <v>2.2333333334762671</v>
       </c>
       <c r="N79" s="11">
         <v>0.25</v>
@@ -29792,7 +29801,7 @@
         <v>211</v>
       </c>
       <c r="U79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="V79" t="s">
@@ -29801,13 +29810,14 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>79</v>
+        <f t="shared" si="9"/>
+        <v>76</v>
       </c>
       <c r="B80" s="5">
         <v>44874</v>
       </c>
       <c r="C80" s="18">
-        <v>0.66041666666666665</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="D80">
         <v>33</v>
@@ -29816,7 +29826,7 @@
         <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
         <v>92</v>
@@ -29831,15 +29841,15 @@
         <v>130</v>
       </c>
       <c r="K80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="L80" s="23">
-        <v>1.9328703703703704E-3</v>
+        <v>8.9120370370370362E-4</v>
       </c>
       <c r="M80" s="32">
-        <f t="shared" si="9"/>
-        <v>2.7833333335114667</v>
+        <f t="shared" si="10"/>
+        <v>1.2833333334154666</v>
       </c>
       <c r="N80" s="11">
         <v>0.25</v>
@@ -29864,7 +29874,7 @@
         <v>211</v>
       </c>
       <c r="U80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="V80" t="s">
@@ -29873,89 +29883,120 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81" s="5">
-        <v>44857</v>
+        <v>44874</v>
+      </c>
+      <c r="C81" s="18">
+        <v>0.66041666666666665</v>
       </c>
       <c r="D81">
-        <v>34</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>181</v>
       </c>
       <c r="F81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" t="s">
         <v>92</v>
       </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
       <c r="H81">
-        <v>980</v>
+        <v>78</v>
       </c>
       <c r="I81">
-        <v>252.8</v>
+        <v>113</v>
       </c>
       <c r="J81">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="K81">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="L81" s="23">
+        <v>1.9328703703703704E-3</v>
+      </c>
+      <c r="M81" s="32">
+        <f t="shared" si="10"/>
+        <v>2.7833333335114667</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>180</v>
+      </c>
+      <c r="R81" s="7">
+        <v>13</v>
+      </c>
+      <c r="S81">
+        <f>IF(ABS(J81-Q81)&gt;180,360-ABS(J81-Q81),ABS(J81-Q81))</f>
+        <v>50</v>
+      </c>
+      <c r="T81" t="s">
+        <v>211</v>
+      </c>
+      <c r="U81">
         <f t="shared" si="11"/>
-        <v>24.199999999999989</v>
-      </c>
-      <c r="L81" s="23">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="M81" s="32">
-        <f t="shared" si="9"/>
-        <v>8.0000000005120011</v>
-      </c>
-      <c r="N81" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="V81" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82" s="5">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="D82">
         <v>34</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s">
         <v>24</v>
       </c>
       <c r="H82">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="I82">
-        <v>336</v>
+        <v>252.8</v>
       </c>
       <c r="J82">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>24.199999999999989</v>
       </c>
       <c r="L82" s="23">
-        <v>4.8611111111111112E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="M82" s="32">
-        <f t="shared" si="9"/>
-        <v>7.0000000004479999</v>
+        <f t="shared" si="10"/>
+        <v>8.0000000005120011</v>
       </c>
       <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B83" s="5">
         <v>44856</v>
@@ -29967,7 +30008,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
         <v>24</v>
@@ -29979,162 +30020,157 @@
         <v>336</v>
       </c>
       <c r="J83">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="L83" s="23">
-        <v>6.9444444444444441E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="M83" s="32">
-        <f t="shared" si="9"/>
-        <v>10.00000000064</v>
+        <f t="shared" si="10"/>
+        <v>7.0000000004479999</v>
       </c>
       <c r="N83" s="11"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B84" s="5">
-        <v>44858</v>
+        <v>44856</v>
       </c>
       <c r="D84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="G84" t="s">
         <v>24</v>
       </c>
       <c r="H84">
-        <v>562</v>
+        <v>700</v>
       </c>
       <c r="I84">
-        <v>171.10000000000002</v>
+        <v>336</v>
       </c>
       <c r="J84">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
-        <v>4.1000000000000227</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="L84" s="23">
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="M84" s="32">
-        <f t="shared" si="9"/>
-        <v>5.00000000032</v>
+        <f t="shared" si="10"/>
+        <v>10.00000000064</v>
       </c>
       <c r="N84" s="11"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>84</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="B85" s="5">
-        <v>44770</v>
-      </c>
-      <c r="C85" s="18">
-        <v>0.43055555555555558</v>
+        <v>44858</v>
       </c>
       <c r="D85">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="H85">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="I85">
-        <v>163</v>
+        <v>171.10000000000002</v>
       </c>
       <c r="J85">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K85">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>4.1000000000000227</v>
       </c>
       <c r="L85" s="23">
-        <v>3.1249999999999997E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="M85" s="32">
-        <f t="shared" si="9"/>
-        <v>4.5000000002879998</v>
+        <f t="shared" si="10"/>
+        <v>5.00000000032</v>
       </c>
       <c r="N85" s="11"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>192</v>
+        <v>80</v>
+      </c>
+      <c r="B86" s="5">
+        <v>44770</v>
       </c>
       <c r="C86" s="18">
-        <v>0.59583333333333333</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D86">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="H86">
-        <v>691</v>
+        <v>439</v>
       </c>
       <c r="I86">
-        <v>171.60000000000002</v>
+        <v>163</v>
       </c>
       <c r="J86">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K86">
-        <f t="shared" si="11"/>
-        <v>11.600000000000023</v>
-      </c>
-      <c r="L86" s="28">
-        <v>4.3981481481481484E-3</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="L86" s="23">
+        <v>3.1249999999999997E-3</v>
       </c>
       <c r="M86" s="32">
-        <f t="shared" si="9"/>
-        <v>6.3333333337386675</v>
+        <f t="shared" si="10"/>
+        <v>4.5000000002879998</v>
       </c>
       <c r="N86" s="11"/>
-      <c r="R86" s="7">
-        <v>20</v>
-      </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
         <v>192</v>
       </c>
       <c r="C87" s="18">
-        <v>0.6</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="D87">
         <v>37</v>
@@ -30143,7 +30179,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G87" t="s">
         <v>236</v>
@@ -30155,18 +30191,18 @@
         <v>171.60000000000002</v>
       </c>
       <c r="J87">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K87">
-        <f t="shared" si="11"/>
-        <v>21.600000000000023</v>
+        <f t="shared" si="12"/>
+        <v>11.600000000000023</v>
       </c>
       <c r="L87" s="28">
-        <v>4.5138888888888893E-3</v>
+        <v>4.3981481481481484E-3</v>
       </c>
       <c r="M87" s="32">
-        <f t="shared" si="9"/>
-        <v>6.5000000004160006</v>
+        <f t="shared" si="10"/>
+        <v>6.3333333337386675</v>
       </c>
       <c r="N87" s="11"/>
       <c r="R87" s="7">
@@ -30175,129 +30211,105 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" s="18">
-        <v>0.60277777777777775</v>
+        <v>0.6</v>
       </c>
       <c r="D88">
         <v>37</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
         <v>236</v>
       </c>
       <c r="H88">
-        <v>412</v>
+        <v>691</v>
       </c>
       <c r="I88">
-        <v>178.5</v>
+        <v>171.60000000000002</v>
       </c>
       <c r="J88">
         <v>150</v>
       </c>
       <c r="K88">
-        <f t="shared" si="11"/>
-        <v>28.5</v>
+        <f t="shared" si="12"/>
+        <v>21.600000000000023</v>
       </c>
       <c r="L88" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>4.5138888888888893E-3</v>
       </c>
       <c r="M88" s="32">
-        <f t="shared" si="9"/>
-        <v>4.0000000002560006</v>
+        <f t="shared" si="10"/>
+        <v>6.5000000004160006</v>
       </c>
       <c r="N88" s="11"/>
+      <c r="R88" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>44868</v>
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
       </c>
       <c r="C89" s="18">
-        <v>0.51041666666666663</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="D89">
-        <v>38</v>
-      </c>
-      <c r="E89" t="s">
-        <v>196</v>
+        <v>37</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="H89">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="I89">
-        <v>293</v>
+        <v>178.5</v>
       </c>
       <c r="J89">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="K89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="23">
-        <v>1.1574074074074073E-3</v>
+        <f t="shared" si="12"/>
+        <v>28.5</v>
+      </c>
+      <c r="L89" s="28">
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M89" s="32">
-        <f t="shared" si="9"/>
-        <v>1.6666666667733332</v>
-      </c>
-      <c r="N89" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>180</v>
-      </c>
-      <c r="R89" s="7">
-        <v>14</v>
-      </c>
-      <c r="S89">
-        <f>IF(ABS(J89-Q89)&gt;180,360-ABS(J89-Q89),ABS(J89-Q89))</f>
-        <v>113</v>
-      </c>
-      <c r="T89" t="s">
-        <v>211</v>
-      </c>
-      <c r="U89">
         <f t="shared" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="V89" t="s">
-        <v>211</v>
-      </c>
+        <v>4.0000000002560006</v>
+      </c>
+      <c r="N89" s="11"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>89</v>
+        <f t="shared" si="9"/>
+        <v>84</v>
       </c>
       <c r="B90" s="5">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="C90" s="18">
-        <v>0.59930555555555554</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D90">
         <v>38</v>
@@ -30306,7 +30318,7 @@
         <v>196</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s">
         <v>92</v>
@@ -30321,41 +30333,41 @@
         <v>293</v>
       </c>
       <c r="K90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L90" s="23">
-        <v>1.0995370370370371E-3</v>
+        <v>1.1574074074074073E-3</v>
       </c>
       <c r="M90" s="32">
-        <f t="shared" si="9"/>
-        <v>1.5833333334346669</v>
+        <f t="shared" si="10"/>
+        <v>1.6666666667733332</v>
       </c>
       <c r="N90" s="11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="R90" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S90">
         <f>IF(ABS(J90-Q90)&gt;180,360-ABS(J90-Q90),ABS(J90-Q90))</f>
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="T90" t="s">
         <v>211</v>
       </c>
       <c r="U90">
-        <f t="shared" si="10"/>
-        <v>83</v>
+        <f t="shared" si="11"/>
+        <v>113</v>
       </c>
       <c r="V90" t="s">
         <v>211</v>
@@ -30363,13 +30375,13 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B91" s="5">
         <v>44876</v>
       </c>
       <c r="C91" s="18">
-        <v>0.6166666666666667</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="D91">
         <v>38</v>
@@ -30378,7 +30390,7 @@
         <v>196</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>92</v>
@@ -30393,15 +30405,15 @@
         <v>293</v>
       </c>
       <c r="K91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L91" s="23">
-        <v>9.2592592592592585E-4</v>
+        <v>1.0995370370370371E-3</v>
       </c>
       <c r="M91" s="32">
-        <f t="shared" si="9"/>
-        <v>1.3333333334186666</v>
+        <f t="shared" si="10"/>
+        <v>1.5833333334346669</v>
       </c>
       <c r="N91" s="11">
         <v>0.8</v>
@@ -30426,7 +30438,7 @@
         <v>211</v>
       </c>
       <c r="U91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="V91" t="s">
@@ -30435,19 +30447,19 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B92" s="5">
-        <v>44883</v>
+        <v>44876</v>
       </c>
       <c r="C92" s="18">
-        <v>0.50138888888888888</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D92">
         <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F92" t="s">
         <v>46</v>
@@ -30456,122 +30468,122 @@
         <v>92</v>
       </c>
       <c r="H92">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="J92">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="L92" s="23">
-        <v>1.4699074074074074E-3</v>
+        <v>9.2592592592592585E-4</v>
       </c>
       <c r="M92" s="32">
-        <f t="shared" si="9"/>
-        <v>2.1166666668021334</v>
+        <f t="shared" si="10"/>
+        <v>1.3333333334186666</v>
       </c>
       <c r="N92" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
         <v>1</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>2</v>
       </c>
       <c r="Q92">
         <v>210</v>
       </c>
       <c r="R92" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S92">
         <f>IF(ABS(J92-Q92)&gt;180,360-ABS(J92-Q92),ABS(J92-Q92))</f>
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="T92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U92">
-        <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-      <c r="V92" s="28" t="s">
-        <v>212</v>
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="V92" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B93" s="5">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="C93" s="18">
-        <v>0.6972222222222223</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="D93">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
         <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>92</v>
       </c>
       <c r="H93">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I93">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J93">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="L93" s="23">
-        <v>1.1805555555555556E-3</v>
+        <v>1.4699074074074074E-3</v>
       </c>
       <c r="M93" s="32">
-        <f t="shared" si="9"/>
-        <v>1.7000000001088</v>
+        <f t="shared" si="10"/>
+        <v>2.1166666668021334</v>
       </c>
       <c r="N93" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q93">
         <v>210</v>
       </c>
       <c r="R93" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S93">
         <f>IF(ABS(J93-Q93)&gt;180,360-ABS(J93-Q93),ABS(J93-Q93))</f>
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="T93" t="s">
         <v>212</v>
       </c>
       <c r="U93">
-        <f t="shared" si="10"/>
-        <v>173</v>
+        <f t="shared" si="11"/>
+        <v>153</v>
       </c>
       <c r="V93" s="28" t="s">
         <v>212</v>
@@ -30579,138 +30591,168 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" s="31">
-        <v>44866</v>
+        <v>87</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44882</v>
       </c>
       <c r="C94" s="18">
-        <v>0.6875</v>
+        <v>0.6972222222222223</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G94" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="H94">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I94">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J94">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K94">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L94" s="23">
+        <v>1.1805555555555556E-3</v>
+      </c>
+      <c r="M94" s="32">
+        <f t="shared" si="10"/>
+        <v>1.7000000001088</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>2.5</v>
+      </c>
+      <c r="Q94">
+        <v>210</v>
+      </c>
+      <c r="R94" s="7">
+        <v>10</v>
+      </c>
+      <c r="S94">
+        <f>IF(ABS(J94-Q94)&gt;180,360-ABS(J94-Q94),ABS(J94-Q94))</f>
+        <v>170</v>
+      </c>
+      <c r="T94" t="s">
+        <v>212</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="L94" s="23">
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="M94" s="32">
-        <f t="shared" si="9"/>
-        <v>2.50000000016</v>
-      </c>
-      <c r="N94" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="V94" s="28" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>94</v>
+        <f t="shared" si="9"/>
+        <v>88</v>
       </c>
       <c r="B95" s="31">
-        <v>44872</v>
+        <v>44866</v>
       </c>
       <c r="C95" s="18">
-        <v>0.61111111111111105</v>
+        <v>0.6875</v>
       </c>
       <c r="D95">
         <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H95">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="I95">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="J95">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="L95" s="23">
-        <v>2.1296296296296298E-3</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="M95" s="32">
-        <f t="shared" si="9"/>
-        <v>3.0666666668629334</v>
+        <f t="shared" si="10"/>
+        <v>2.50000000016</v>
       </c>
       <c r="N95" s="11"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B96" s="31">
-        <v>44851</v>
+        <v>44872</v>
       </c>
       <c r="C96" s="18">
-        <v>0.58333333333333337</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D96">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F96" t="s">
         <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H96">
-        <v>869</v>
+        <v>82</v>
       </c>
       <c r="I96">
-        <v>13.3</v>
+        <v>240</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
-        <v>10.3</v>
+        <f t="shared" si="12"/>
+        <v>40</v>
       </c>
       <c r="L96" s="23">
-        <v>4.1666666666666666E-3</v>
+        <v>2.1296296296296298E-3</v>
       </c>
       <c r="M96" s="32">
-        <f t="shared" ref="M96:M97" si="12">L96/0.0006944444444</f>
-        <v>6.0000000003840004</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>3.0666666668629334</v>
+      </c>
+      <c r="N96" s="11"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B97" s="31">
         <v>44851</v>
@@ -30722,7 +30764,7 @@
         <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="F97" t="s">
         <v>46</v>
@@ -30731,29 +30773,72 @@
         <v>224</v>
       </c>
       <c r="H97">
+        <v>869</v>
+      </c>
+      <c r="I97">
+        <v>13.3</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="12"/>
+        <v>10.3</v>
+      </c>
+      <c r="L97" s="23">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M97" s="32">
+        <f t="shared" ref="M97:M98" si="13">L97/0.0006944444444</f>
+        <v>6.0000000003840004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>90</v>
+      </c>
+      <c r="B98" s="31">
+        <v>44851</v>
+      </c>
+      <c r="C98" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D98">
+        <v>41</v>
+      </c>
+      <c r="E98" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" t="s">
+        <v>224</v>
+      </c>
+      <c r="H98">
         <v>1269</v>
       </c>
-      <c r="I97">
+      <c r="I98">
         <v>202</v>
       </c>
-      <c r="J97">
+      <c r="J98">
         <v>212</v>
       </c>
-      <c r="K97">
-        <f t="shared" si="11"/>
+      <c r="K98">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="L97" s="23">
+      <c r="L98" s="23">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="M97" s="32">
-        <f t="shared" si="12"/>
+      <c r="M98" s="32">
+        <f t="shared" si="13"/>
         <v>9.0000000005759997</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:V97">
-    <sortCondition ref="D3:D97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:V98">
+    <sortCondition ref="D3:D98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30765,8 +30850,8 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView zoomScale="123" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33705,10 +33790,11 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
+        <f t="shared" ref="A50" si="6">A49+1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="5">
-        <v>44841</v>
+      <c r="B50" s="31">
+        <v>44840</v>
       </c>
       <c r="D50">
         <v>29</v>
@@ -33729,21 +33815,20 @@
         <v>88.2</v>
       </c>
       <c r="J50">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
-        <v>12.200000000000003</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="L50" s="23">
-        <v>1.3888888888888889E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="M50" s="32">
         <f t="shared" si="5"/>
-        <v>2.0000000001280003</v>
+        <v>4.0000000002560006</v>
       </c>
       <c r="N50" s="11"/>
-      <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -34161,7 +34246,7 @@
         <v>35</v>
       </c>
       <c r="K60">
-        <f t="shared" ref="K60:K76" si="6">IF(ABS(I60-J60)&gt;180,360-ABS(I60-J60),ABS(I60-J60))</f>
+        <f t="shared" ref="K60:K76" si="7">IF(ABS(I60-J60)&gt;180,360-ABS(I60-J60),ABS(I60-J60))</f>
         <v>13.399999999999977</v>
       </c>
       <c r="L60" s="23">
@@ -34206,7 +34291,7 @@
         <v>46</v>
       </c>
       <c r="K61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="L61" s="23">
@@ -34251,7 +34336,7 @@
         <v>130</v>
       </c>
       <c r="K62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="L62" s="23">
@@ -34316,7 +34401,7 @@
         <v>277</v>
       </c>
       <c r="K63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.199999999999989</v>
       </c>
       <c r="L63" s="23">
@@ -34358,14 +34443,14 @@
         <v>350</v>
       </c>
       <c r="K64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="L64" s="23">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="M64" s="32">
-        <f t="shared" ref="M64:M76" si="7">L64/0.0006944444444</f>
+        <f t="shared" ref="M64:M76" si="8">L64/0.0006944444444</f>
         <v>7.0000000004479999</v>
       </c>
       <c r="N64" s="11"/>
@@ -34400,14 +34485,14 @@
         <v>334</v>
       </c>
       <c r="K65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L65" s="23">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="M65" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.00000000064</v>
       </c>
       <c r="N65" s="11"/>
@@ -34442,14 +34527,14 @@
         <v>167</v>
       </c>
       <c r="K66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1000000000000227</v>
       </c>
       <c r="L66" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="M66" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.00000000032</v>
       </c>
       <c r="N66" s="11"/>
@@ -34487,14 +34572,14 @@
         <v>170</v>
       </c>
       <c r="K67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="L67" s="23">
         <v>3.1249999999999997E-3</v>
       </c>
       <c r="M67" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5000000002879998</v>
       </c>
       <c r="N67" s="11"/>
@@ -34532,14 +34617,14 @@
         <v>160</v>
       </c>
       <c r="K68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.600000000000023</v>
       </c>
       <c r="L68" s="28">
         <v>4.3981481481481484E-3</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3333333337386675</v>
       </c>
       <c r="N68" s="11"/>
@@ -34580,14 +34665,14 @@
         <v>150</v>
       </c>
       <c r="K69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="L69" s="28">
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="M69" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0000000002560006</v>
       </c>
       <c r="N69" s="11"/>
@@ -34625,14 +34710,14 @@
         <v>293</v>
       </c>
       <c r="K70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L70" s="23">
         <v>9.2592592592592585E-4</v>
       </c>
       <c r="M70" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3333333334186666</v>
       </c>
       <c r="N70" s="11">
@@ -34693,14 +34778,14 @@
         <v>10</v>
       </c>
       <c r="K71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="L71" s="23">
         <v>1.4699074074074074E-3</v>
       </c>
       <c r="M71" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1166666668021334</v>
       </c>
       <c r="N71" s="11">
@@ -34762,14 +34847,14 @@
         <v>20</v>
       </c>
       <c r="K72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="L72" s="23">
         <v>1.1805555555555556E-3</v>
       </c>
       <c r="M72" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7000000001088</v>
       </c>
       <c r="N72" s="11">
@@ -34831,14 +34916,14 @@
         <v>70</v>
       </c>
       <c r="K73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="L73" s="23">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="M73" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.50000000016</v>
       </c>
       <c r="N73" s="11"/>
@@ -34876,14 +34961,14 @@
         <v>200</v>
       </c>
       <c r="K74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="L74" s="23">
         <v>2.1296296296296298E-3</v>
       </c>
       <c r="M74" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0666666668629334</v>
       </c>
       <c r="N74" s="11"/>
@@ -34921,14 +35006,14 @@
         <v>3</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.3</v>
       </c>
       <c r="L75" s="23">
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="M75" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0000000003840004</v>
       </c>
     </row>
@@ -34964,14 +35049,14 @@
         <v>212</v>
       </c>
       <c r="K76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="L76" s="23">
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="M76" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0000000005759997</v>
       </c>
     </row>
@@ -38555,7 +38640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91258279-EED5-4B8C-87BA-E3298CB3CB3F}">
   <dimension ref="A1:V285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="V286" sqref="V286"/>
     </sheetView>
   </sheetViews>

--- a/Asian hornet data.xlsx
+++ b/Asian hornet data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helee\OneDrive\Documenten\GitHub\vespa_analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc989a75547cfb81/Documenten/GitHub/vespa_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA70BF-EF32-441A-AF65-BAFDBD15F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2FDA70BF-EF32-441A-AF65-BAFDBD15F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683ACDBA-9D53-439F-B911-B59D1D84CC0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{D21F6F35-0DF4-4740-B8AA-5A49382E1DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="261">
   <si>
     <t>Date</t>
   </si>
@@ -829,6 +829,9 @@
   <si>
     <t>Verstedelijkt</t>
   </si>
+  <si>
+    <t>Urban_EN</t>
+  </si>
 </sst>
 </file>
 
@@ -1290,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC3462-51EA-49F0-8541-5518B67248DA}">
   <dimension ref="A1:V285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A197" sqref="A197:XFD197"/>
     </sheetView>
   </sheetViews>
@@ -29118,7 +29121,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f t="shared" ref="A65:A97" si="9">A64+1</f>
+        <f t="shared" ref="A65:A95" si="9">A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="31">
@@ -58489,7 +58492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25DE0E8-20D7-42E5-A5FE-9568E58C2604}">
   <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H1:H2"/>
     </sheetView>
@@ -62127,11 +62130,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FFDA88-3512-4357-B275-C59183D0EF18}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="121" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62144,9 +62147,10 @@
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -62189,8 +62193,11 @@
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -62234,8 +62241,12 @@
       <c r="N2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="str">
+        <f>IF(N2="Landelijk", "Rural", IF(N2="Randstedelijk", "Suburban", "Urban"))</f>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -62279,8 +62290,12 @@
       <c r="N3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="1">IF(N3="Landelijk", "Rural", IF(N3="Randstedelijk", "Suburban", "Urban"))</f>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -62324,8 +62339,12 @@
       <c r="N4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -62369,8 +62388,12 @@
       <c r="N5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -62414,8 +62437,12 @@
       <c r="N6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -62432,7 +62459,7 @@
         <v>332</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F57" si="1">MOD(180+G7,360)</f>
+        <f t="shared" ref="F7:F57" si="2">MOD(180+G7,360)</f>
         <v>83.899999999999977</v>
       </c>
       <c r="G7" s="7">
@@ -62459,8 +62486,12 @@
       <c r="N7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -62477,7 +62508,7 @@
         <v>301</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.899999999999977</v>
       </c>
       <c r="G8" s="7">
@@ -62504,8 +62535,12 @@
       <c r="N8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -62522,7 +62557,7 @@
         <v>203</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="G9" s="7">
@@ -62549,8 +62584,12 @@
       <c r="N9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -62567,7 +62606,7 @@
         <v>274</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="G10" s="7">
@@ -62594,8 +62633,12 @@
       <c r="N10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -62612,7 +62655,7 @@
         <v>196</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G11" s="7">
@@ -62639,8 +62682,12 @@
       <c r="N11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -62657,7 +62704,7 @@
         <v>184</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G12" s="7">
@@ -62684,8 +62731,12 @@
       <c r="N12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -62702,7 +62753,7 @@
         <v>141</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G13" s="7">
@@ -62729,8 +62780,12 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -62747,7 +62802,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>338</v>
       </c>
       <c r="G14" s="7">
@@ -62774,8 +62829,12 @@
       <c r="N14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -62792,7 +62851,7 @@
         <v>746</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.5</v>
       </c>
       <c r="G15" s="7">
@@ -62819,8 +62878,12 @@
       <c r="N15" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -62837,7 +62900,7 @@
         <v>134</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="G16" s="7">
@@ -62864,8 +62927,12 @@
       <c r="N16" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -62882,7 +62949,7 @@
         <v>652</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G17" s="7">
@@ -62909,8 +62976,12 @@
       <c r="N17" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -62927,7 +62998,7 @@
         <v>415</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>307.10000000000002</v>
       </c>
       <c r="G18" s="7">
@@ -62954,8 +63025,12 @@
       <c r="N18" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -62972,7 +63047,7 @@
         <v>401</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.699999999999989</v>
       </c>
       <c r="G19" s="7">
@@ -62999,8 +63074,12 @@
       <c r="N19" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -63017,7 +63096,7 @@
         <v>157</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="G20" s="7">
@@ -63044,8 +63123,12 @@
       <c r="N20" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -63062,7 +63145,7 @@
         <v>270</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G21" s="7">
@@ -63089,8 +63172,12 @@
       <c r="N21" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -63107,7 +63194,7 @@
         <v>232</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="G22" s="7">
@@ -63134,8 +63221,12 @@
       <c r="N22" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -63152,7 +63243,7 @@
         <v>413</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219.9</v>
       </c>
       <c r="G23" s="7">
@@ -63179,8 +63270,12 @@
       <c r="N23" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -63197,7 +63292,7 @@
         <v>313</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>241.1</v>
       </c>
       <c r="G24" s="7">
@@ -63224,8 +63319,12 @@
       <c r="N24" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
@@ -63242,7 +63341,7 @@
         <v>139</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="G25" s="7">
@@ -63269,8 +63368,12 @@
       <c r="N25" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -63287,7 +63390,7 @@
         <v>70</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
       <c r="G26" s="7">
@@ -63314,8 +63417,12 @@
       <c r="N26" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
@@ -63332,7 +63439,7 @@
         <v>92</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="G27" s="7">
@@ -63359,8 +63466,12 @@
       <c r="N27" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
@@ -63377,7 +63488,7 @@
         <v>181</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="G28" s="7">
@@ -63404,8 +63515,12 @@
       <c r="N28" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
@@ -63422,7 +63537,7 @@
         <v>84</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="G29" s="7">
@@ -63449,8 +63564,12 @@
       <c r="N29" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
@@ -63467,7 +63586,7 @@
         <v>83</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="G30" s="7">
@@ -63494,8 +63613,12 @@
       <c r="N30" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>17</v>
       </c>
@@ -63512,7 +63635,7 @@
         <v>415</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.39999999999998</v>
       </c>
       <c r="G31" s="7">
@@ -63539,8 +63662,12 @@
       <c r="N31" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17</v>
       </c>
@@ -63557,7 +63684,7 @@
         <v>187</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="G32" s="7">
@@ -63584,8 +63711,12 @@
       <c r="N32" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -63602,7 +63733,7 @@
         <v>706</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240.8</v>
       </c>
       <c r="G33" s="7">
@@ -63629,8 +63760,12 @@
       <c r="N33" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18</v>
       </c>
@@ -63647,7 +63782,7 @@
         <v>331</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>251.6</v>
       </c>
       <c r="G34" s="7">
@@ -63674,8 +63809,12 @@
       <c r="N34" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>18</v>
       </c>
@@ -63692,7 +63831,7 @@
         <v>230</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="G35" s="7">
@@ -63719,8 +63858,12 @@
       <c r="N35" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>18</v>
       </c>
@@ -63737,7 +63880,7 @@
         <v>110</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="G36" s="7">
@@ -63764,8 +63907,12 @@
       <c r="N36" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>19</v>
       </c>
@@ -63782,7 +63929,7 @@
         <v>340</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.800000000000011</v>
       </c>
       <c r="G37" s="7">
@@ -63809,8 +63956,12 @@
       <c r="N37" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -63827,7 +63978,7 @@
         <v>188</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>313</v>
       </c>
       <c r="G38" s="7">
@@ -63854,8 +64005,12 @@
       <c r="N38" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
@@ -63872,7 +64027,7 @@
         <v>494</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165.79999999999995</v>
       </c>
       <c r="G39" s="7">
@@ -63899,8 +64054,12 @@
       <c r="N39" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -63917,7 +64076,7 @@
         <v>687</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="G40" s="7">
@@ -63944,8 +64103,12 @@
       <c r="N40" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>21</v>
       </c>
@@ -63962,7 +64125,7 @@
         <v>583</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123.30000000000001</v>
       </c>
       <c r="G41" s="7">
@@ -63989,8 +64152,12 @@
       <c r="N41" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>21</v>
       </c>
@@ -64007,7 +64174,7 @@
         <v>469</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.800000000000011</v>
       </c>
       <c r="G42" s="7">
@@ -64034,8 +64201,12 @@
       <c r="N42" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
@@ -64052,7 +64223,7 @@
         <v>435</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118.39999999999998</v>
       </c>
       <c r="G43" s="7">
@@ -64079,8 +64250,12 @@
       <c r="N43" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>21</v>
       </c>
@@ -64097,7 +64272,7 @@
         <v>196</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="G44" s="7">
@@ -64124,8 +64299,12 @@
       <c r="N44" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>21</v>
       </c>
@@ -64142,7 +64321,7 @@
         <v>118</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G45" s="7">
@@ -64169,8 +64348,12 @@
       <c r="N45" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>21</v>
       </c>
@@ -64187,7 +64370,7 @@
         <v>109</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G46" s="7">
@@ -64214,8 +64397,12 @@
       <c r="N46" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>21</v>
       </c>
@@ -64232,7 +64419,7 @@
         <v>181</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="G47" s="7">
@@ -64259,8 +64446,12 @@
       <c r="N47" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>21</v>
       </c>
@@ -64277,7 +64468,7 @@
         <v>165</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="G48" s="7">
@@ -64304,8 +64495,12 @@
       <c r="N48" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>21</v>
       </c>
@@ -64322,7 +64517,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="G49" s="7">
@@ -64349,8 +64544,12 @@
       <c r="N49" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>21</v>
       </c>
@@ -64367,7 +64566,7 @@
         <v>48</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="G50" s="7">
@@ -64394,8 +64593,12 @@
       <c r="N50" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>23</v>
       </c>
@@ -64412,7 +64615,7 @@
         <v>957</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.600000000000023</v>
       </c>
       <c r="G51" s="7">
@@ -64439,8 +64642,12 @@
       <c r="N51" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>23</v>
       </c>
@@ -64457,7 +64664,7 @@
         <v>526</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.199999999999989</v>
       </c>
       <c r="G52" s="7">
@@ -64484,8 +64691,12 @@
       <c r="N52" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>23</v>
       </c>
@@ -64502,7 +64713,7 @@
         <v>214</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="G53" s="7">
@@ -64529,8 +64740,12 @@
       <c r="N53" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -64547,7 +64762,7 @@
         <v>889</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.899999999999977</v>
       </c>
       <c r="G54" s="7">
@@ -64574,8 +64789,12 @@
       <c r="N54" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24</v>
       </c>
@@ -64592,7 +64811,7 @@
         <v>459</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.800000000000011</v>
       </c>
       <c r="G55" s="7">
@@ -64619,8 +64838,12 @@
       <c r="N55" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24</v>
       </c>
@@ -64637,7 +64860,7 @@
         <v>237</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="G56" s="7">
@@ -64664,8 +64887,12 @@
       <c r="N56" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>26</v>
       </c>
@@ -64682,7 +64909,7 @@
         <v>548</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>203.3</v>
       </c>
       <c r="G57" s="7">
@@ -64709,8 +64936,12 @@
       <c r="N57" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>27</v>
       </c>
@@ -64754,8 +64985,12 @@
       <c r="N58" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>28</v>
       </c>
@@ -64772,7 +65007,7 @@
         <v>359</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" ref="F59:F89" si="2">MOD(180+G59,360)</f>
+        <f t="shared" ref="F59:F89" si="3">MOD(180+G59,360)</f>
         <v>72.5</v>
       </c>
       <c r="G59" s="7">
@@ -64799,8 +65034,12 @@
       <c r="N59" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59" t="str">
+        <f t="shared" si="1"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>29</v>
       </c>
@@ -64817,7 +65056,7 @@
         <v>619</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88.199999999999989</v>
       </c>
       <c r="G60" s="7">
@@ -64844,8 +65083,12 @@
       <c r="N60" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60" t="str">
+        <f t="shared" si="1"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>30</v>
       </c>
@@ -64862,7 +65105,7 @@
         <v>197</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G61" s="7">
@@ -64889,8 +65132,12 @@
       <c r="N61" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>30</v>
       </c>
@@ -64907,7 +65154,7 @@
         <v>404</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293.10000000000002</v>
       </c>
       <c r="G62" s="7">
@@ -64934,8 +65181,12 @@
       <c r="N62" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>30</v>
       </c>
@@ -64952,7 +65203,7 @@
         <v>503</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>295.60000000000002</v>
       </c>
       <c r="G63" s="7">
@@ -64979,8 +65230,12 @@
       <c r="N63" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>30</v>
       </c>
@@ -64997,7 +65252,7 @@
         <v>493</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>261.2</v>
       </c>
       <c r="G64" s="7">
@@ -65024,8 +65279,12 @@
       <c r="N64" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>30</v>
       </c>
@@ -65042,7 +65301,7 @@
         <v>939</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>227.10000000000002</v>
       </c>
       <c r="G65" s="7">
@@ -65069,8 +65328,12 @@
       <c r="N65" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>30</v>
       </c>
@@ -65087,7 +65350,7 @@
         <v>891</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>297.2</v>
       </c>
       <c r="G66" s="7">
@@ -65114,8 +65377,12 @@
       <c r="N66" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66" t="str">
+        <f t="shared" si="1"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>30</v>
       </c>
@@ -65132,7 +65399,7 @@
         <v>504</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>295.8</v>
       </c>
       <c r="G67" s="7">
@@ -65159,8 +65426,12 @@
       <c r="N67" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O89" si="4">IF(N67="Landelijk", "Rural", IF(N67="Randstedelijk", "Suburban", "Urban"))</f>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>31</v>
       </c>
@@ -65177,7 +65448,7 @@
         <v>1058</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114.19999999999999</v>
       </c>
       <c r="G68" s="7">
@@ -65204,8 +65475,12 @@
       <c r="N68" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>31</v>
       </c>
@@ -65222,7 +65497,7 @@
         <v>846</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151.80000000000001</v>
       </c>
       <c r="G69" s="7">
@@ -65249,8 +65524,12 @@
       <c r="N69" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>32</v>
       </c>
@@ -65267,7 +65546,7 @@
         <v>448</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.399999999999977</v>
       </c>
       <c r="G70" s="7">
@@ -65294,8 +65573,12 @@
       <c r="N70" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>32</v>
       </c>
@@ -65312,7 +65595,7 @@
         <v>241</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="G71" s="7">
@@ -65339,8 +65622,12 @@
       <c r="N71" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>33</v>
       </c>
@@ -65357,7 +65644,7 @@
         <v>78</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="G72" s="7">
@@ -65384,8 +65671,12 @@
       <c r="N72" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72" t="str">
+        <f t="shared" si="4"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>34</v>
       </c>
@@ -65402,7 +65693,7 @@
         <v>980</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>252.8</v>
       </c>
       <c r="G73" s="7">
@@ -65429,8 +65720,12 @@
       <c r="N73" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>34</v>
       </c>
@@ -65447,7 +65742,7 @@
         <v>700</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="G74" s="7">
@@ -65474,8 +65769,12 @@
       <c r="N74" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>35</v>
       </c>
@@ -65492,7 +65791,7 @@
         <v>684</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204.4</v>
       </c>
       <c r="G75" s="7">
@@ -65519,8 +65818,12 @@
       <c r="N75" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>35</v>
       </c>
@@ -65537,7 +65840,7 @@
         <v>562</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171.10000000000002</v>
       </c>
       <c r="G76" s="7">
@@ -65564,8 +65867,12 @@
       <c r="N76" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>36</v>
       </c>
@@ -65582,7 +65889,7 @@
         <v>439</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="G77" s="7">
@@ -65609,8 +65916,12 @@
       <c r="N77" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>36</v>
       </c>
@@ -65627,7 +65938,7 @@
         <v>412</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94.300000000000011</v>
       </c>
       <c r="G78" s="7">
@@ -65654,8 +65965,12 @@
       <c r="N78" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>37</v>
       </c>
@@ -65672,7 +65987,7 @@
         <v>691</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171.60000000000002</v>
       </c>
       <c r="G79" s="7">
@@ -65699,8 +66014,12 @@
       <c r="N79" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>37</v>
       </c>
@@ -65717,7 +66036,7 @@
         <v>412</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178.5</v>
       </c>
       <c r="G80" s="7">
@@ -65744,8 +66063,12 @@
       <c r="N80" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>38</v>
       </c>
@@ -65762,7 +66085,7 @@
         <v>53</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G81" s="7">
@@ -65789,8 +66112,12 @@
       <c r="N81" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81" t="str">
+        <f t="shared" si="4"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>38</v>
       </c>
@@ -65807,7 +66134,7 @@
         <v>130</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="G82" s="7">
@@ -65834,8 +66161,12 @@
       <c r="N82" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82" t="str">
+        <f t="shared" si="4"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>39</v>
       </c>
@@ -65852,7 +66183,7 @@
         <v>33</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="G83" s="7">
@@ -65879,8 +66210,12 @@
       <c r="N83" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83" t="str">
+        <f t="shared" si="4"/>
+        <v>Urban</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>40</v>
       </c>
@@ -65897,7 +66232,7 @@
         <v>164</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G84" s="7">
@@ -65924,8 +66259,12 @@
       <c r="N84" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>40</v>
       </c>
@@ -65942,7 +66281,7 @@
         <v>82</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="G85" s="7">
@@ -65969,8 +66308,12 @@
       <c r="N85" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>40</v>
       </c>
@@ -65987,7 +66330,7 @@
         <v>207</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="G86" s="7">
@@ -66014,8 +66357,12 @@
       <c r="N86" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -66032,7 +66379,7 @@
         <v>248</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="G87" s="7">
@@ -66059,8 +66406,12 @@
       <c r="N87" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87" t="str">
+        <f t="shared" si="4"/>
+        <v>Suburban</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41</v>
       </c>
@@ -66077,7 +66428,7 @@
         <v>869</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.300000000000011</v>
       </c>
       <c r="G88" s="7">
@@ -66104,8 +66455,12 @@
       <c r="N88" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>41</v>
       </c>
@@ -66122,7 +66477,7 @@
         <v>1269</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="G89">
@@ -66148,6 +66503,10 @@
       </c>
       <c r="N89" t="s">
         <v>258</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="4"/>
+        <v>Rural</v>
       </c>
     </row>
   </sheetData>
